--- a/cw2.xlsx
+++ b/cw2.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Beast 980</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Beast omp4</t>
   </si>
@@ -36,6 +33,24 @@
   </si>
   <si>
     <t>Particles</t>
+  </si>
+  <si>
+    <t>Beast 980 128</t>
+  </si>
+  <si>
+    <t>Beast 980 256</t>
+  </si>
+  <si>
+    <t>Beast 980 64</t>
+  </si>
+  <si>
+    <t>Beast 980 512</t>
+  </si>
+  <si>
+    <t>Beast 980 32</t>
+  </si>
+  <si>
+    <t>Beast 980 16</t>
   </si>
 </sst>
 </file>
@@ -146,11 +161,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Beast 980</c:v>
+                  <c:v>Beast 980 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -208,7 +223,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$K$4</c:f>
+              <c:f>Sheet1!$B$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -252,7 +267,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -314,7 +329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$K$5</c:f>
+              <c:f>Sheet1!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -358,7 +373,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -420,7 +435,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$K$6</c:f>
+              <c:f>Sheet1!$B$11:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -468,11 +483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="255841520"/>
-        <c:axId val="255847504"/>
+        <c:axId val="-1383232864"/>
+        <c:axId val="-1383232320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255841520"/>
+        <c:axId val="-1383232864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255847504"/>
+        <c:crossAx val="-1383232320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -523,7 +538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255847504"/>
+        <c:axId val="-1383232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +589,527 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255841520"/>
+        <c:crossAx val="-1383232864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beast 980 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>222383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>611821</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1064721.7272727273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1936779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beast 980 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>132017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>715630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1890546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beast 980 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131746</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>276897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>645492.95652173914</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1862400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1384624480"/>
+        <c:axId val="-1384612512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1384624480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1384612512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1384612512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1384624480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,6 +1230,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1211,20 +1786,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1238,6 +2329,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1509,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K12"/>
+  <dimension ref="A3:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +2648,7 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1024</v>
@@ -1562,121 +2683,373 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>132017</v>
+        <v>232561.96666666667</v>
       </c>
       <c r="C4">
-        <v>194038</v>
+        <v>321483</v>
       </c>
       <c r="D4">
-        <v>295955</v>
+        <v>652148</v>
       </c>
       <c r="E4">
-        <v>715630</v>
+        <v>1144973.5</v>
       </c>
       <c r="F4">
-        <v>1890546</v>
+        <v>1974166</v>
       </c>
       <c r="G4">
-        <v>8720851</v>
+        <v>9218764</v>
       </c>
       <c r="H4">
-        <v>53158386</v>
+        <v>36788726</v>
       </c>
       <c r="I4">
-        <v>120636308</v>
+        <v>135558129</v>
       </c>
       <c r="J4">
-        <v>471306195</v>
+        <v>500508658</v>
       </c>
       <c r="K4">
-        <v>1902573106</v>
+        <v>2100373591.7058823</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1673719</v>
+        <v>222383</v>
       </c>
       <c r="C5">
-        <v>7044369</v>
+        <v>306777</v>
       </c>
       <c r="D5">
-        <v>22303959.188118812</v>
+        <v>611821</v>
       </c>
       <c r="E5">
-        <v>89877455.603960395</v>
+        <v>1064721.7272727273</v>
       </c>
       <c r="F5">
-        <v>410324624</v>
+        <v>1936779</v>
       </c>
       <c r="G5">
-        <v>1597990889</v>
+        <v>9162489</v>
       </c>
       <c r="H5">
-        <v>5535961882</v>
+        <v>34392489</v>
       </c>
       <c r="I5">
-        <v>21020146880</v>
+        <v>134494095</v>
       </c>
       <c r="J5">
-        <v>95596341800</v>
+        <v>489240481</v>
       </c>
       <c r="K5">
-        <v>377586190700</v>
+        <v>2051084152</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1673641.857142857</v>
+        <v>132017</v>
       </c>
       <c r="C6">
-        <v>5105855</v>
+        <v>194038</v>
       </c>
       <c r="D6">
-        <v>18329783.523809522</v>
+        <v>295955</v>
       </c>
       <c r="E6">
-        <v>72641777</v>
+        <v>715630</v>
       </c>
       <c r="F6">
-        <v>285564823.5</v>
+        <v>1890546</v>
       </c>
       <c r="G6">
-        <v>1178307758</v>
+        <v>8720851</v>
       </c>
       <c r="H6">
-        <v>4643888597.333333</v>
+        <v>53158386</v>
       </c>
       <c r="I6">
-        <v>18259532350</v>
+        <v>120636308</v>
       </c>
       <c r="J6">
-        <v>72826053033</v>
+        <v>471306195</v>
       </c>
       <c r="K6">
-        <v>302954398750</v>
+        <v>1902573106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>131746</v>
+      </c>
+      <c r="C7">
+        <v>172444</v>
+      </c>
+      <c r="D7">
+        <v>276897</v>
+      </c>
+      <c r="E7">
+        <v>645492.95652173914</v>
+      </c>
+      <c r="F7">
+        <v>1862400</v>
+      </c>
+      <c r="G7">
+        <v>7258760</v>
+      </c>
+      <c r="H7">
+        <v>31744533</v>
+      </c>
+      <c r="I7">
+        <v>118254985</v>
+      </c>
+      <c r="J7">
+        <v>451687006</v>
+      </c>
+      <c r="K7">
+        <v>1901846008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>109754</v>
+      </c>
+      <c r="C8">
+        <v>156527</v>
+      </c>
+      <c r="D8">
+        <v>289343.04761904763</v>
+      </c>
+      <c r="E8">
+        <v>640376</v>
+      </c>
+      <c r="F8">
+        <v>1832538</v>
+      </c>
+      <c r="G8">
+        <v>7255430</v>
+      </c>
+      <c r="H8">
+        <v>28107860</v>
+      </c>
+      <c r="I8">
+        <v>116337409</v>
+      </c>
+      <c r="J8">
+        <v>451347643</v>
+      </c>
+      <c r="K8">
+        <v>1899133451.1333301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>150129</v>
+      </c>
+      <c r="C9">
+        <v>223934</v>
+      </c>
+      <c r="D9">
+        <v>463631</v>
+      </c>
+      <c r="E9">
+        <v>1467783</v>
+      </c>
+      <c r="F9">
+        <v>3561431</v>
+      </c>
+      <c r="G9">
+        <v>13522181</v>
+      </c>
+      <c r="H9">
+        <v>63055637</v>
+      </c>
+      <c r="I9">
+        <v>222645031</v>
+      </c>
+      <c r="J9">
+        <v>917328272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1673719</v>
+      </c>
+      <c r="C10">
+        <v>7044369</v>
+      </c>
+      <c r="D10">
+        <v>22303959.188118812</v>
+      </c>
+      <c r="E10">
+        <v>89877455.603960395</v>
+      </c>
+      <c r="F10">
+        <v>410324624</v>
+      </c>
+      <c r="G10">
+        <v>1597990889</v>
+      </c>
+      <c r="H10">
+        <v>5535961882</v>
+      </c>
+      <c r="I10">
+        <v>21020146880</v>
+      </c>
+      <c r="J10">
+        <v>95596341800</v>
+      </c>
+      <c r="K10">
+        <v>377586190700</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>300493200200</v>
+      <c r="A11" t="s">
+        <v>1</v>
       </c>
       <c r="B11">
-        <f>AVERAGE(A11:A108)</f>
+        <v>1673641.857142857</v>
+      </c>
+      <c r="C11">
+        <v>5105855</v>
+      </c>
+      <c r="D11">
+        <v>18329783.523809522</v>
+      </c>
+      <c r="E11">
+        <v>72641777</v>
+      </c>
+      <c r="F11">
+        <v>285564823.5</v>
+      </c>
+      <c r="G11">
+        <v>1178307758</v>
+      </c>
+      <c r="H11">
+        <v>4643888597.333333</v>
+      </c>
+      <c r="I11">
+        <v>18259532350</v>
+      </c>
+      <c r="J11">
+        <v>72826053033</v>
+      </c>
+      <c r="K11">
         <v>302954398750</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>305415597300</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>867740602</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(A12:A108)</f>
+        <v>917328272.22222221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>894425154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>899695081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>891645562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>919484574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>916435130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>927792418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>927436948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>923022492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>923858495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>923145506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>931282116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>924512889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>927868110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>931837637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>930226273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>928018020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>923481893</v>
       </c>
     </row>
   </sheetData>

--- a/cw2.xlsx
+++ b/cw2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Beast omp4</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Beast 980 16</t>
+  </si>
+  <si>
+    <t>Beast omp1</t>
   </si>
 </sst>
 </file>
@@ -161,11 +164,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Beast 980 128</c:v>
+                  <c:v>Beast 980 512</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -182,80 +185,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024</c:v>
+                  <c:v>232561.96666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>321483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>652148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>1144973.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>524288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>132017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194038</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>295955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>715630</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1890546</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8720851</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53158386</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120636308</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>471306195</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1902573106</c:v>
+                  <c:v>1974166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,11 +216,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Beast omp4</c:v>
+                  <c:v>Beast 980 256</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -288,80 +237,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024</c:v>
+                  <c:v>222383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>306777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>611821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>1064721.7272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>524288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1673719</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7044369</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22303959.188118812</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89877455.603960395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>410324624</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1597990889</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5535961882</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21020146880</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>95596341800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>377586190700</c:v>
+                  <c:v>1936779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,11 +268,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Beast omp8</c:v>
+                  <c:v>Beast 980 128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -394,80 +289,182 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1024</c:v>
+                  <c:v>132017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2048</c:v>
+                  <c:v>194038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4096</c:v>
+                  <c:v>295955</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8192</c:v>
+                  <c:v>715630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>524288</c:v>
+                  <c:v>1890546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beast 980 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$K$11</c:f>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1673641.857142857</c:v>
+                  <c:v>131746</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5105855</c:v>
+                  <c:v>172444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18329783.523809522</c:v>
+                  <c:v>276897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72641777</c:v>
+                  <c:v>645492.95652173914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285564823.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1178307758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4643888597.333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18259532350</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>72826053033</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>302954398750</c:v>
+                  <c:v>1862400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beast 980 32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>109754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>289343.04761904763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>640376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1832538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beast 980 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>150129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>463631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1467783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3561431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,11 +480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1383232864"/>
-        <c:axId val="-1383232320"/>
+        <c:axId val="-1491555440"/>
+        <c:axId val="-1491554896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1383232864"/>
+        <c:axId val="-1491555440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1383232320"/>
+        <c:crossAx val="-1491554896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1383232320"/>
+        <c:axId val="-1491554896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,527 +586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1383232864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Beast 980 256</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>524288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>222383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>306777</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>611821</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1064721.7272727273</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1936779</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Beast 980 128</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>524288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>132017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>194038</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>295955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>715630</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1890546</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Beast 980 64</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$K$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>65536</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131072</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>262144</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>524288</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>131746</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>172444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>276897</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>645492.95652173914</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1862400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1384624480"/>
-        <c:axId val="-1384612512"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-1384624480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1384612512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1384612512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1384624480"/>
+        <c:crossAx val="-1491555440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,46 +707,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1786,540 +1223,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2329,36 +1250,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2630,20 +1521,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K30"/>
+  <dimension ref="A3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2890,166 +1780,118 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1673719</v>
+        <v>4898464</v>
       </c>
       <c r="C10">
-        <v>7044369</v>
+        <v>19137390</v>
       </c>
       <c r="D10">
-        <v>22303959.188118812</v>
+        <v>74248371.90476191</v>
       </c>
       <c r="E10">
-        <v>89877455.603960395</v>
+        <v>296021576</v>
       </c>
       <c r="F10">
-        <v>410324624</v>
+        <v>1185570486</v>
       </c>
       <c r="G10">
-        <v>1597990889</v>
+        <v>4798358120</v>
       </c>
       <c r="H10">
-        <v>5535961882</v>
+        <v>19412054880</v>
       </c>
       <c r="I10">
-        <v>21020146880</v>
+        <v>76464740250</v>
       </c>
       <c r="J10">
-        <v>95596341800</v>
-      </c>
-      <c r="K10">
-        <v>377586190700</v>
+        <v>314798033100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1673719</v>
+      </c>
+      <c r="C11">
+        <v>7044369</v>
+      </c>
+      <c r="D11">
+        <v>22303959.188118812</v>
+      </c>
+      <c r="E11">
+        <v>89877455.603960395</v>
+      </c>
+      <c r="F11">
+        <v>410324624</v>
+      </c>
+      <c r="G11">
+        <v>1597990889</v>
+      </c>
+      <c r="H11">
+        <v>5535961882</v>
+      </c>
+      <c r="I11">
+        <v>21020146880</v>
+      </c>
+      <c r="J11">
+        <v>95596341800</v>
+      </c>
+      <c r="K11">
+        <v>377586190700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1673641.857142857</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>5105855</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>18329783.523809522</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>72641777</v>
       </c>
-      <c r="F11">
-        <v>285564823.5</v>
-      </c>
-      <c r="G11">
+      <c r="F12">
+        <v>285564823</v>
+      </c>
+      <c r="G12">
         <v>1178307758</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>4643888597.333333</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>18259532350</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>72826053033</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>302954398750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>867740602</v>
-      </c>
-      <c r="B13">
-        <f>AVERAGE(A12:A108)</f>
-        <v>917328272.22222221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>894425154</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>899695081</v>
+        <v>316511389200</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(A15:A35)</f>
+        <v>314798033100</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>891645562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>919484574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>916435130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>927792418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>927436948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>923022492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>923858495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>923145506</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>931282116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>924512889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>927868110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>931837637</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>930226273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>928018020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>923481893</v>
+        <v>313084677000</v>
       </c>
     </row>
   </sheetData>

--- a/cw2.xlsx
+++ b/cw2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Beast omp4</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Beast omp1</t>
+  </si>
+  <si>
+    <t>Beast omp2</t>
+  </si>
+  <si>
+    <t>Beast omp3</t>
+  </si>
+  <si>
+    <t>Beast omp5</t>
+  </si>
+  <si>
+    <t>Beast omp7</t>
+  </si>
+  <si>
+    <t>Beast omp6</t>
   </si>
 </sst>
 </file>
@@ -164,7 +179,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -187,12 +202,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>232561.96666666667</c:v>
+                  <c:v>232561</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>321483</c:v>
@@ -201,7 +216,7 @@
                   <c:v>652148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1144973.5</c:v>
+                  <c:v>1144973</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1974166</c:v>
@@ -216,7 +231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -239,7 +254,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -253,7 +268,7 @@
                   <c:v>611821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1064721.7272727273</c:v>
+                  <c:v>1064722</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1936779</c:v>
@@ -268,7 +283,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -291,7 +306,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -320,7 +335,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,7 +358,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -357,7 +372,7 @@
                   <c:v>276897</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>645492.95652173914</c:v>
+                  <c:v>645493</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1862400</c:v>
@@ -372,7 +387,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -395,7 +410,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -406,7 +421,7 @@
                   <c:v>156527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289343.04761904763</c:v>
+                  <c:v>289343</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>640376</c:v>
@@ -424,7 +439,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -447,7 +462,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$F$9</c:f>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -480,11 +495,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1491555440"/>
-        <c:axId val="-1491554896"/>
+        <c:axId val="-61791184"/>
+        <c:axId val="-61793360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1491555440"/>
+        <c:axId val="-61791184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,7 +542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1491554896"/>
+        <c:crossAx val="-61793360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -535,7 +550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1491554896"/>
+        <c:axId val="-61793360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1491555440"/>
+        <c:crossAx val="-61791184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,16 +1242,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223836</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1521,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K16"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,281 +1548,355 @@
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>1024</v>
+      </c>
+      <c r="C1">
+        <v>2048</v>
+      </c>
+      <c r="D1">
+        <v>4096</v>
+      </c>
+      <c r="E1">
+        <v>8192</v>
+      </c>
+      <c r="F1">
+        <v>16384</v>
+      </c>
+      <c r="G1">
+        <v>32768</v>
+      </c>
+      <c r="H1">
+        <v>65536</v>
+      </c>
+      <c r="I1">
+        <v>131072</v>
+      </c>
+      <c r="J1">
+        <v>262144</v>
+      </c>
+      <c r="K1">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>232561</v>
+      </c>
+      <c r="C2">
+        <v>321483</v>
+      </c>
+      <c r="D2">
+        <v>652148</v>
+      </c>
+      <c r="E2">
+        <v>1144973</v>
+      </c>
+      <c r="F2">
+        <v>1974166</v>
+      </c>
+      <c r="G2">
+        <v>9218764</v>
+      </c>
+      <c r="H2">
+        <v>36788726</v>
+      </c>
+      <c r="I2">
+        <v>135558129</v>
+      </c>
+      <c r="J2">
+        <v>500508658</v>
+      </c>
+      <c r="K2">
+        <v>2100373591.7058823</v>
+      </c>
+    </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1024</v>
+        <v>222383</v>
       </c>
       <c r="C3">
-        <v>2048</v>
+        <v>306777</v>
       </c>
       <c r="D3">
-        <v>4096</v>
+        <v>611821</v>
       </c>
       <c r="E3">
-        <v>8192</v>
+        <v>1064722</v>
       </c>
       <c r="F3">
-        <v>16384</v>
+        <v>1936779</v>
       </c>
       <c r="G3">
-        <v>32768</v>
+        <v>9162489</v>
       </c>
       <c r="H3">
-        <v>65536</v>
+        <v>34392489</v>
       </c>
       <c r="I3">
-        <v>131072</v>
+        <v>134494095</v>
       </c>
       <c r="J3">
-        <v>262144</v>
+        <v>489240481</v>
       </c>
       <c r="K3">
-        <v>524288</v>
+        <v>2051084152</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>232561.96666666667</v>
+        <v>132017</v>
       </c>
       <c r="C4">
-        <v>321483</v>
+        <v>194038</v>
       </c>
       <c r="D4">
-        <v>652148</v>
+        <v>295955</v>
       </c>
       <c r="E4">
-        <v>1144973.5</v>
+        <v>715630</v>
       </c>
       <c r="F4">
-        <v>1974166</v>
+        <v>1890546</v>
       </c>
       <c r="G4">
-        <v>9218764</v>
+        <v>8720851</v>
       </c>
       <c r="H4">
-        <v>36788726</v>
+        <v>53158386</v>
       </c>
       <c r="I4">
-        <v>135558129</v>
+        <v>120636308</v>
       </c>
       <c r="J4">
-        <v>500508658</v>
+        <v>471306195</v>
       </c>
       <c r="K4">
-        <v>2100373591.7058823</v>
+        <v>1902573106</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>222383</v>
+        <v>131746</v>
       </c>
       <c r="C5">
-        <v>306777</v>
+        <v>172444</v>
       </c>
       <c r="D5">
-        <v>611821</v>
+        <v>276897</v>
       </c>
       <c r="E5">
-        <v>1064721.7272727273</v>
+        <v>645493</v>
       </c>
       <c r="F5">
-        <v>1936779</v>
+        <v>1862400</v>
       </c>
       <c r="G5">
-        <v>9162489</v>
+        <v>7258760</v>
       </c>
       <c r="H5">
-        <v>34392489</v>
+        <v>31744533</v>
       </c>
       <c r="I5">
-        <v>134494095</v>
+        <v>118254985</v>
       </c>
       <c r="J5">
-        <v>489240481</v>
+        <v>451687006</v>
       </c>
       <c r="K5">
-        <v>2051084152</v>
+        <v>1901846008</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>132017</v>
+        <v>109754</v>
       </c>
       <c r="C6">
-        <v>194038</v>
+        <v>156527</v>
       </c>
       <c r="D6">
-        <v>295955</v>
+        <v>289343</v>
       </c>
       <c r="E6">
-        <v>715630</v>
+        <v>640376</v>
       </c>
       <c r="F6">
-        <v>1890546</v>
+        <v>1832538</v>
       </c>
       <c r="G6">
-        <v>8720851</v>
+        <v>7255430</v>
       </c>
       <c r="H6">
-        <v>53158386</v>
+        <v>28107860</v>
       </c>
       <c r="I6">
-        <v>120636308</v>
+        <v>116337409</v>
       </c>
       <c r="J6">
-        <v>471306195</v>
+        <v>451347643</v>
       </c>
       <c r="K6">
-        <v>1902573106</v>
+        <v>1899133451</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>131746</v>
+        <v>150129</v>
       </c>
       <c r="C7">
-        <v>172444</v>
+        <v>223934</v>
       </c>
       <c r="D7">
-        <v>276897</v>
+        <v>463631</v>
       </c>
       <c r="E7">
-        <v>645492.95652173914</v>
+        <v>1467783</v>
       </c>
       <c r="F7">
-        <v>1862400</v>
+        <v>3561431</v>
       </c>
       <c r="G7">
-        <v>7258760</v>
+        <v>13522181</v>
       </c>
       <c r="H7">
-        <v>31744533</v>
+        <v>63055637</v>
       </c>
       <c r="I7">
-        <v>118254985</v>
+        <v>222645031</v>
       </c>
       <c r="J7">
-        <v>451687006</v>
-      </c>
-      <c r="K7">
-        <v>1901846008</v>
+        <v>917328272</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>109754</v>
+        <v>4898464</v>
       </c>
       <c r="C8">
-        <v>156527</v>
+        <v>19137390</v>
       </c>
       <c r="D8">
-        <v>289343.04761904763</v>
+        <v>74248372</v>
       </c>
       <c r="E8">
-        <v>640376</v>
+        <v>296021576</v>
       </c>
       <c r="F8">
-        <v>1832538</v>
+        <v>1185570486</v>
       </c>
       <c r="G8">
-        <v>7255430</v>
+        <v>4798358120</v>
       </c>
       <c r="H8">
-        <v>28107860</v>
+        <v>19412054880</v>
       </c>
       <c r="I8">
-        <v>116337409</v>
+        <v>76464740250</v>
       </c>
       <c r="J8">
-        <v>451347643</v>
+        <v>314798033100</v>
       </c>
       <c r="K8">
-        <v>1899133451.1333301</v>
+        <v>1227484771795</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>150129</v>
+        <v>2509519</v>
       </c>
       <c r="C9">
-        <v>223934</v>
+        <v>9825444</v>
       </c>
       <c r="D9">
-        <v>463631</v>
+        <v>39221322</v>
       </c>
       <c r="E9">
-        <v>1467783</v>
+        <v>155133000</v>
       </c>
       <c r="F9">
-        <v>3561431</v>
+        <v>613819833</v>
       </c>
       <c r="G9">
-        <v>13522181</v>
+        <v>2451838452</v>
       </c>
       <c r="H9">
-        <v>63055637</v>
+        <v>9838845081</v>
       </c>
       <c r="I9">
-        <v>222645031</v>
+        <v>40324535700</v>
       </c>
       <c r="J9">
-        <v>917328272</v>
+        <v>167580293500</v>
+      </c>
+      <c r="K9">
+        <v>797311542200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>4898464</v>
+        <v>2180107</v>
       </c>
       <c r="C10">
-        <v>19137390</v>
+        <v>9192721</v>
       </c>
       <c r="D10">
-        <v>74248371.90476191</v>
+        <v>31041064</v>
       </c>
       <c r="E10">
-        <v>296021576</v>
+        <v>119769028</v>
       </c>
       <c r="F10">
-        <v>1185570486</v>
+        <v>455580228</v>
       </c>
       <c r="G10">
-        <v>4798358120</v>
+        <v>1821590571</v>
       </c>
       <c r="H10">
-        <v>19412054880</v>
+        <v>7185360844</v>
       </c>
       <c r="I10">
-        <v>76464740250</v>
+        <v>27788973525</v>
       </c>
       <c r="J10">
-        <v>314798033100</v>
+        <v>115910694500</v>
+      </c>
+      <c r="K10">
+        <v>496237949500</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1821,10 +1910,10 @@
         <v>7044369</v>
       </c>
       <c r="D11">
-        <v>22303959.188118812</v>
+        <v>22303959</v>
       </c>
       <c r="E11">
-        <v>89877455.603960395</v>
+        <v>98298735</v>
       </c>
       <c r="F11">
         <v>410324624</v>
@@ -1847,53 +1936,159 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1673641.857142857</v>
+        <v>2018400</v>
       </c>
       <c r="C12">
-        <v>5105855</v>
+        <v>6930443</v>
       </c>
       <c r="D12">
-        <v>18329783.523809522</v>
+        <v>25997735</v>
       </c>
       <c r="E12">
-        <v>72641777</v>
+        <v>89877455</v>
       </c>
       <c r="F12">
-        <v>285564823</v>
+        <v>375376050</v>
       </c>
       <c r="G12">
-        <v>1178307758</v>
+        <v>1455549421</v>
       </c>
       <c r="H12">
-        <v>4643888597.333333</v>
+        <v>5624132922</v>
       </c>
       <c r="I12">
-        <v>18259532350</v>
+        <v>22419622775</v>
       </c>
       <c r="J12">
-        <v>72826053033</v>
+        <v>92536925200</v>
       </c>
       <c r="K12">
-        <v>302954398750</v>
+        <v>366961357500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1547457</v>
+      </c>
+      <c r="C13">
+        <v>6081150</v>
+      </c>
+      <c r="D13">
+        <v>23428521</v>
+      </c>
+      <c r="E13">
+        <v>89601828</v>
+      </c>
+      <c r="F13">
+        <v>350760657</v>
+      </c>
+      <c r="G13">
+        <v>1350470350</v>
+      </c>
+      <c r="H13">
+        <v>5229090133</v>
+      </c>
+      <c r="I13">
+        <v>20683325000</v>
+      </c>
+      <c r="J13">
+        <v>84305466133</v>
+      </c>
+      <c r="K13">
+        <v>350425494950</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1538057</v>
+      </c>
+      <c r="C14">
+        <v>5043614</v>
+      </c>
+      <c r="D14">
+        <v>20425300</v>
+      </c>
+      <c r="E14">
+        <v>82376564</v>
+      </c>
+      <c r="F14">
+        <v>322066307</v>
+      </c>
+      <c r="G14">
+        <v>1282542764</v>
+      </c>
+      <c r="H14">
+        <v>4918742854</v>
+      </c>
+      <c r="I14">
+        <v>19273623083</v>
+      </c>
+      <c r="J14">
+        <v>78993125900</v>
+      </c>
+      <c r="K14">
+        <v>325729736550</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>316511389200</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
       <c r="B15">
-        <f>AVERAGE(A15:A35)</f>
-        <v>314798033100</v>
+        <v>1673641.857142857</v>
+      </c>
+      <c r="C15">
+        <v>5105855</v>
+      </c>
+      <c r="D15">
+        <v>18329783</v>
+      </c>
+      <c r="E15">
+        <v>72641777</v>
+      </c>
+      <c r="F15">
+        <v>285564823</v>
+      </c>
+      <c r="G15">
+        <v>1178307758</v>
+      </c>
+      <c r="H15">
+        <v>4643888597</v>
+      </c>
+      <c r="I15">
+        <v>18259532350</v>
+      </c>
+      <c r="J15">
+        <v>72826053033</v>
+      </c>
+      <c r="K15">
+        <v>302954398750</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>313084677000</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>368109075300</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE(A17:A30)</f>
+        <v>366961357500</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>365813639700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/cw2.xlsx
+++ b/cw2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Beast omp4</t>
   </si>
@@ -76,6 +76,9 @@
   <si>
     <t>Efficiency</t>
   </si>
+  <si>
+    <t>GPU Time Per Particle</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5849,6 +5853,842 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPU Time Per Particle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>227.1103515625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.97412109375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159.2158203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139.7672119140625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.4935302734375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>281.3343505859375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>561.35140991210937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1034.226448059082</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>217.1708984375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>149.79345703125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.370361328125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.970947265625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>118.21160888671875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>279.61697387695312</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524.78773498535156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1026.108512878418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128.9228515625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.7451171875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.254638671875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.357177734375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.3897705078125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.13925170898437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>811.13259887695312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>920.38198852539062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>128.658203125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.201171875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.601806640625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.7955322265625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113.671875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.519775390625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>484.38313293457031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>902.21393585205078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$J$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>107.181640625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.42919921875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.640380859375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.1708984375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.8492431640625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.41815185546875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>428.89190673828125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>887.58399200439453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>131072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>146.6103515625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.3427734375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.191162109375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>179.1727294921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.37249755859375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>412.66421508789063</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962.15266418457031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1698.6467819213867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-889012560"/>
+        <c:axId val="-889032688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-889012560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-889032688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-889032688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-889012560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6089,6 +6929,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9185,20 +10065,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9220,15 +10616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9252,15 +10648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9281,16 +10677,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452438</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9366,6 +10762,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9637,10 +11063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="M35" workbookViewId="0">
+      <selection activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10218,7 +11644,7 @@
         <v>302954398750</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -10232,10 +11658,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>1024</v>
       </c>
@@ -10267,7 +11690,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -10313,7 +11736,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -10359,7 +11782,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -10405,7 +11828,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>5</v>
       </c>
@@ -10451,7 +11874,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -10497,7 +11920,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -10543,7 +11966,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>8</v>
       </c>
@@ -10589,7 +12012,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
@@ -10603,7 +12026,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>1024</v>
       </c>
@@ -10635,7 +12058,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -10680,7 +12103,7 @@
         <v>0.76976483270769835</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -10725,7 +12148,7 @@
         <v>0.82452700566451398</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>4</v>
       </c>
@@ -10770,7 +12193,7 @@
         <v>0.81271826276233039</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>5</v>
       </c>
@@ -10815,7 +12238,7 @@
         <v>0.6689994718558343</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>6</v>
       </c>
@@ -10950,13 +12373,360 @@
         <v>0.50646432963989108</v>
       </c>
     </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2048</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8192</v>
+      </c>
+      <c r="G36" s="1">
+        <v>16384</v>
+      </c>
+      <c r="H36" s="1">
+        <v>32768</v>
+      </c>
+      <c r="I36" s="1">
+        <v>65536</v>
+      </c>
+      <c r="J36" s="1">
+        <v>131072</v>
+      </c>
+      <c r="K36" s="1">
+        <v>262144</v>
+      </c>
+      <c r="L36" s="1">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>512</v>
+      </c>
+      <c r="C37" s="2">
+        <f>C2/C$1</f>
+        <v>227.1103515625</v>
+      </c>
+      <c r="D37" s="2">
+        <f>D2/D$1</f>
+        <v>156.97412109375</v>
+      </c>
+      <c r="E37" s="2">
+        <f>E2/E$1</f>
+        <v>159.2158203125</v>
+      </c>
+      <c r="F37" s="2">
+        <f>F2/F$1</f>
+        <v>139.7672119140625</v>
+      </c>
+      <c r="G37" s="2">
+        <f>G2/G$1</f>
+        <v>120.4935302734375</v>
+      </c>
+      <c r="H37" s="2">
+        <f>H2/H$1</f>
+        <v>281.3343505859375</v>
+      </c>
+      <c r="I37" s="2">
+        <f>I2/I$1</f>
+        <v>561.35140991210937</v>
+      </c>
+      <c r="J37" s="2">
+        <f>J2/J$1</f>
+        <v>1034.226448059082</v>
+      </c>
+      <c r="K37" s="2">
+        <f>K2/K$1</f>
+        <v>1909.2890090942383</v>
+      </c>
+      <c r="L37" s="2">
+        <f>L2/L$1</f>
+        <v>4006.1446985356947</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>256</v>
+      </c>
+      <c r="C38" s="2">
+        <f>C3/C$1</f>
+        <v>217.1708984375</v>
+      </c>
+      <c r="D38" s="2">
+        <f>D3/D$1</f>
+        <v>149.79345703125</v>
+      </c>
+      <c r="E38" s="2">
+        <f>E3/E$1</f>
+        <v>149.370361328125</v>
+      </c>
+      <c r="F38" s="2">
+        <f>F3/F$1</f>
+        <v>129.970947265625</v>
+      </c>
+      <c r="G38" s="2">
+        <f>G3/G$1</f>
+        <v>118.21160888671875</v>
+      </c>
+      <c r="H38" s="2">
+        <f>H3/H$1</f>
+        <v>279.61697387695312</v>
+      </c>
+      <c r="I38" s="2">
+        <f>I3/I$1</f>
+        <v>524.78773498535156</v>
+      </c>
+      <c r="J38" s="2">
+        <f>J3/J$1</f>
+        <v>1026.108512878418</v>
+      </c>
+      <c r="K38" s="2">
+        <f>K3/K$1</f>
+        <v>1866.3043251037598</v>
+      </c>
+      <c r="L38" s="2">
+        <f>L3/L$1</f>
+        <v>3912.1325531005859</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C4/C$1</f>
+        <v>128.9228515625</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D4/D$1</f>
+        <v>94.7451171875</v>
+      </c>
+      <c r="E39" s="2">
+        <f>E4/E$1</f>
+        <v>72.254638671875</v>
+      </c>
+      <c r="F39" s="2">
+        <f>F4/F$1</f>
+        <v>87.357177734375</v>
+      </c>
+      <c r="G39" s="2">
+        <f>G4/G$1</f>
+        <v>115.3897705078125</v>
+      </c>
+      <c r="H39" s="2">
+        <f>H4/H$1</f>
+        <v>266.13925170898437</v>
+      </c>
+      <c r="I39" s="2">
+        <f>I4/I$1</f>
+        <v>811.13259887695312</v>
+      </c>
+      <c r="J39" s="2">
+        <f>J4/J$1</f>
+        <v>920.38198852539062</v>
+      </c>
+      <c r="K39" s="2">
+        <f>K4/K$1</f>
+        <v>1797.890453338623</v>
+      </c>
+      <c r="L39" s="2">
+        <f>L4/L$1</f>
+        <v>3628.8702125549316</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C5/C$1</f>
+        <v>128.658203125</v>
+      </c>
+      <c r="D40" s="2">
+        <f>D5/D$1</f>
+        <v>84.201171875</v>
+      </c>
+      <c r="E40" s="2">
+        <f>E5/E$1</f>
+        <v>67.601806640625</v>
+      </c>
+      <c r="F40" s="2">
+        <f>F5/F$1</f>
+        <v>78.7955322265625</v>
+      </c>
+      <c r="G40" s="2">
+        <f>G5/G$1</f>
+        <v>113.671875</v>
+      </c>
+      <c r="H40" s="2">
+        <f>H5/H$1</f>
+        <v>221.519775390625</v>
+      </c>
+      <c r="I40" s="2">
+        <f>I5/I$1</f>
+        <v>484.38313293457031</v>
+      </c>
+      <c r="J40" s="2">
+        <f>J5/J$1</f>
+        <v>902.21393585205078</v>
+      </c>
+      <c r="K40" s="2">
+        <f>K5/K$1</f>
+        <v>1723.049186706543</v>
+      </c>
+      <c r="L40" s="2">
+        <f>L5/L$1</f>
+        <v>3627.4833831787109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2">
+        <f>C6/C$1</f>
+        <v>107.181640625</v>
+      </c>
+      <c r="D41" s="2">
+        <f>D6/D$1</f>
+        <v>76.42919921875</v>
+      </c>
+      <c r="E41" s="2">
+        <f>E6/E$1</f>
+        <v>70.640380859375</v>
+      </c>
+      <c r="F41" s="2">
+        <f>F6/F$1</f>
+        <v>78.1708984375</v>
+      </c>
+      <c r="G41" s="2">
+        <f>G6/G$1</f>
+        <v>111.8492431640625</v>
+      </c>
+      <c r="H41" s="2">
+        <f>H6/H$1</f>
+        <v>221.41815185546875</v>
+      </c>
+      <c r="I41" s="2">
+        <f>I6/I$1</f>
+        <v>428.89190673828125</v>
+      </c>
+      <c r="J41" s="2">
+        <f>J6/J$1</f>
+        <v>887.58399200439453</v>
+      </c>
+      <c r="K41" s="2">
+        <f>K6/K$1</f>
+        <v>1721.7546195983887</v>
+      </c>
+      <c r="L41" s="2">
+        <f>L6/L$1</f>
+        <v>3622.309591293335</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <f>C7/C$1</f>
+        <v>146.6103515625</v>
+      </c>
+      <c r="D42" s="2">
+        <f>D7/D$1</f>
+        <v>109.3427734375</v>
+      </c>
+      <c r="E42" s="2">
+        <f>E7/E$1</f>
+        <v>113.191162109375</v>
+      </c>
+      <c r="F42" s="2">
+        <f>F7/F$1</f>
+        <v>179.1727294921875</v>
+      </c>
+      <c r="G42" s="2">
+        <f>G7/G$1</f>
+        <v>217.37249755859375</v>
+      </c>
+      <c r="H42" s="2">
+        <f>H7/H$1</f>
+        <v>412.66421508789063</v>
+      </c>
+      <c r="I42" s="2">
+        <f>I7/I$1</f>
+        <v>962.15266418457031</v>
+      </c>
+      <c r="J42" s="2">
+        <f>J7/J$1</f>
+        <v>1698.6467819213867</v>
+      </c>
+      <c r="K42" s="2">
+        <f>K7/K$1</f>
+        <v>3499.3296508789062</v>
+      </c>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C26:L26"/>
     <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C35:L35"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:L25">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10967,8 +12737,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:L34">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C28:L34 C43:C47">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10979,6 +12749,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37:L42">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/cw2.xlsx
+++ b/cw2.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Beast omp4</t>
   </si>
@@ -77,13 +78,40 @@
     <t>Efficiency</t>
   </si>
   <si>
+    <t>2 Cores</t>
+  </si>
+  <si>
+    <t>3 Cores</t>
+  </si>
+  <si>
+    <t>4 Cores</t>
+  </si>
+  <si>
+    <t>5 Cores</t>
+  </si>
+  <si>
     <t>GPU Time Per Particle</t>
+  </si>
+  <si>
+    <t>6 Cores</t>
+  </si>
+  <si>
+    <t>7 Cores</t>
+  </si>
+  <si>
+    <t>8 Cores</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +159,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11065,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M35" workbookViewId="0">
-      <selection activeCell="AD69" sqref="AD69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="C2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11645,6 +11674,9 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -12375,7 +12407,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -12765,4 +12797,2337 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4096</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16384</v>
+      </c>
+      <c r="G2" s="1">
+        <v>32768</v>
+      </c>
+      <c r="H2" s="1">
+        <v>65536</v>
+      </c>
+      <c r="I2" s="1">
+        <v>131072</v>
+      </c>
+      <c r="J2" s="1">
+        <v>262144</v>
+      </c>
+      <c r="K2" s="1">
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.9519533424532749</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.9477379342857177</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.8930614322485102</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.9081792784256091</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.9314633093649158</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.9570449741849469</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.9730013756885985</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.8962336186303566</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.8784907612063586</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.5395296654153967</v>
+      </c>
+      <c r="N3">
+        <v>232561</v>
+      </c>
+      <c r="O3">
+        <v>321483</v>
+      </c>
+      <c r="P3">
+        <v>652148</v>
+      </c>
+      <c r="Q3">
+        <v>1144973</v>
+      </c>
+      <c r="R3">
+        <v>1974166</v>
+      </c>
+      <c r="S3">
+        <v>9218764</v>
+      </c>
+      <c r="T3">
+        <v>36788726</v>
+      </c>
+      <c r="U3">
+        <v>135558129</v>
+      </c>
+      <c r="V3">
+        <v>500508658</v>
+      </c>
+      <c r="W3">
+        <v>2100373591.7058823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.2468915516531989</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.0817981966384056</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.3919403020463474</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.4716037271338629</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.60233085883613</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.6341584088052463</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.7016116937550421</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.751621616437522</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.715867025540081</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.4735810169935419</v>
+      </c>
+      <c r="N4">
+        <v>222383</v>
+      </c>
+      <c r="O4">
+        <v>306777</v>
+      </c>
+      <c r="P4">
+        <v>611821</v>
+      </c>
+      <c r="Q4">
+        <v>1064722</v>
+      </c>
+      <c r="R4">
+        <v>1936779</v>
+      </c>
+      <c r="S4">
+        <v>9162489</v>
+      </c>
+      <c r="T4">
+        <v>34392489</v>
+      </c>
+      <c r="U4">
+        <v>134494095</v>
+      </c>
+      <c r="V4">
+        <v>489240481</v>
+      </c>
+      <c r="W4">
+        <v>2051084152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.9266943853777128</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.7166932907688395</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.3289324106092555</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.0114484789656752</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.8893476449027342</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.002744354195126</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.5065369476472852</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.6376881991606713</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.2929924636509469</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.2508730510493216</v>
+      </c>
+      <c r="N5">
+        <v>132017</v>
+      </c>
+      <c r="O5">
+        <v>194038</v>
+      </c>
+      <c r="P5">
+        <v>295955</v>
+      </c>
+      <c r="Q5">
+        <v>715630</v>
+      </c>
+      <c r="R5">
+        <v>1890546</v>
+      </c>
+      <c r="S5">
+        <v>8720851</v>
+      </c>
+      <c r="T5">
+        <v>53158386</v>
+      </c>
+      <c r="U5">
+        <v>120636308</v>
+      </c>
+      <c r="V5">
+        <v>471306195</v>
+      </c>
+      <c r="W5">
+        <v>1902573106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.4269044787950853</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7613516192254952</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.8559554130388665</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.2936132426090614</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3.158354098510014</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.2965958082710816</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.4515640275971413</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.4106167181039915</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.4018639847782621</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.3449973592791715</v>
+      </c>
+      <c r="N6">
+        <v>131746</v>
+      </c>
+      <c r="O6">
+        <v>172444</v>
+      </c>
+      <c r="P6">
+        <v>276897</v>
+      </c>
+      <c r="Q6">
+        <v>645493</v>
+      </c>
+      <c r="R6">
+        <v>1862400</v>
+      </c>
+      <c r="S6">
+        <v>7258760</v>
+      </c>
+      <c r="T6">
+        <v>31744533</v>
+      </c>
+      <c r="U6">
+        <v>118254985</v>
+      </c>
+      <c r="V6">
+        <v>451687006</v>
+      </c>
+      <c r="W6">
+        <v>1901846008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.1654928052928129</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.1470018006462595</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.1691446506589127</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.3037448298487839</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.3799984757127421</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.5531014212936998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.7123198082766726</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.6969268843379872</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.7340168738688395</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.5028409447495878</v>
+      </c>
+      <c r="N7">
+        <v>109754</v>
+      </c>
+      <c r="O7">
+        <v>156527</v>
+      </c>
+      <c r="P7">
+        <v>289343</v>
+      </c>
+      <c r="Q7">
+        <v>640376</v>
+      </c>
+      <c r="R7">
+        <v>1832538</v>
+      </c>
+      <c r="S7">
+        <v>7255430</v>
+      </c>
+      <c r="T7">
+        <v>28107860</v>
+      </c>
+      <c r="U7">
+        <v>116337409</v>
+      </c>
+      <c r="V7">
+        <v>451347643</v>
+      </c>
+      <c r="W7">
+        <v>1899133451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.1848390534290991</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.7943803788315282</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.6351178195669096</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.5935169133784215</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3.6811378906518155</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.7412850898124126</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.9465480217600333</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3.9673257031494269</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3.9851319910863281</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3.7684148361645797</v>
+      </c>
+      <c r="N8">
+        <v>150129</v>
+      </c>
+      <c r="O8">
+        <v>223934</v>
+      </c>
+      <c r="P8">
+        <v>463631</v>
+      </c>
+      <c r="Q8">
+        <v>1467783</v>
+      </c>
+      <c r="R8">
+        <v>3561431</v>
+      </c>
+      <c r="S8">
+        <v>13522181</v>
+      </c>
+      <c r="T8">
+        <v>63055637</v>
+      </c>
+      <c r="U8">
+        <v>222645031</v>
+      </c>
+      <c r="V8">
+        <v>917328272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2.9268307839016852</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.7481264156541854</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.0506956356220911</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.0750872049839861</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.1516685197602223</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4.0722452070963957</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.1801293193252711</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4.1876614791835021</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4.3226018710275858</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.0517146371191286</v>
+      </c>
+      <c r="N9">
+        <v>4898464</v>
+      </c>
+      <c r="O9">
+        <v>19137390</v>
+      </c>
+      <c r="P9">
+        <v>74248372</v>
+      </c>
+      <c r="Q9">
+        <v>296021576</v>
+      </c>
+      <c r="R9">
+        <v>1185570486</v>
+      </c>
+      <c r="S9">
+        <v>4798358120</v>
+      </c>
+      <c r="T9">
+        <v>19412054880</v>
+      </c>
+      <c r="U9">
+        <v>76464740250</v>
+      </c>
+      <c r="V9">
+        <v>314798033100</v>
+      </c>
+      <c r="W9">
+        <v>1227484771795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="N10">
+        <v>2509519</v>
+      </c>
+      <c r="O10">
+        <v>9825444</v>
+      </c>
+      <c r="P10">
+        <v>39221322</v>
+      </c>
+      <c r="Q10">
+        <v>155133000</v>
+      </c>
+      <c r="R10">
+        <v>613819833</v>
+      </c>
+      <c r="S10">
+        <v>2451838452</v>
+      </c>
+      <c r="T10">
+        <v>9838845081</v>
+      </c>
+      <c r="U10">
+        <v>40324535700</v>
+      </c>
+      <c r="V10">
+        <v>167580293500</v>
+      </c>
+      <c r="W10">
+        <v>797311542200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4096</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16384</v>
+      </c>
+      <c r="G11" s="1">
+        <v>32768</v>
+      </c>
+      <c r="H11" s="1">
+        <v>65536</v>
+      </c>
+      <c r="I11" s="1">
+        <v>131072</v>
+      </c>
+      <c r="J11" s="1">
+        <v>262144</v>
+      </c>
+      <c r="K11" s="1">
+        <v>524288</v>
+      </c>
+      <c r="N11">
+        <v>2180107</v>
+      </c>
+      <c r="O11">
+        <v>9192721</v>
+      </c>
+      <c r="P11">
+        <v>31041064</v>
+      </c>
+      <c r="Q11">
+        <v>119769028</v>
+      </c>
+      <c r="R11">
+        <v>455580228</v>
+      </c>
+      <c r="S11">
+        <v>1821590571</v>
+      </c>
+      <c r="T11">
+        <v>7185360844</v>
+      </c>
+      <c r="U11">
+        <v>27788973525</v>
+      </c>
+      <c r="V11">
+        <v>115910694500</v>
+      </c>
+      <c r="W11">
+        <v>496237949500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.97597667122663745</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.97386896714285887</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.9465307161242551</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.95408963921280454</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.96573165468245792</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.97852248709247347</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.98650068784429923</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.94811680931517828</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.9392453806031793</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.76976483270769835</v>
+      </c>
+      <c r="N12">
+        <v>1673719</v>
+      </c>
+      <c r="O12">
+        <v>7044369</v>
+      </c>
+      <c r="P12">
+        <v>22303959</v>
+      </c>
+      <c r="Q12">
+        <v>98298735</v>
+      </c>
+      <c r="R12">
+        <v>410324624</v>
+      </c>
+      <c r="S12">
+        <v>1597990889</v>
+      </c>
+      <c r="T12">
+        <v>5535961882</v>
+      </c>
+      <c r="U12">
+        <v>21020146880</v>
+      </c>
+      <c r="V12">
+        <v>95596341800</v>
+      </c>
+      <c r="W12">
+        <v>377586190700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.74896385055106629</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.69393273221280183</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.79731343401544919</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.82386790904462093</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.8674436196120433</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.87805280293508214</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.90053723125168073</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.917207205479174</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.90528900851336036</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.82452700566451398</v>
+      </c>
+      <c r="N13">
+        <v>2018400</v>
+      </c>
+      <c r="O13">
+        <v>6930443</v>
+      </c>
+      <c r="P13">
+        <v>25997735</v>
+      </c>
+      <c r="Q13">
+        <v>89877455</v>
+      </c>
+      <c r="R13">
+        <v>375376050</v>
+      </c>
+      <c r="S13">
+        <v>1455549421</v>
+      </c>
+      <c r="T13">
+        <v>5624132922</v>
+      </c>
+      <c r="U13">
+        <v>22419622775</v>
+      </c>
+      <c r="V13">
+        <v>92536925200</v>
+      </c>
+      <c r="W13">
+        <v>366961357500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.73167359634442819</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.67917332269220987</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.83223310265231387</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.75286211974141881</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.72233691122568355</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.75068608854878149</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.8766342369118213</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.90942204979016783</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.82324811591273672</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.81271826276233039</v>
+      </c>
+      <c r="N14">
+        <v>1547457</v>
+      </c>
+      <c r="O14">
+        <v>6081150</v>
+      </c>
+      <c r="P14">
+        <v>23428521</v>
+      </c>
+      <c r="Q14">
+        <v>89601828</v>
+      </c>
+      <c r="R14">
+        <v>350760657</v>
+      </c>
+      <c r="S14">
+        <v>1350470350</v>
+      </c>
+      <c r="T14">
+        <v>5229090133</v>
+      </c>
+      <c r="U14">
+        <v>20683325000</v>
+      </c>
+      <c r="V14">
+        <v>84305466133</v>
+      </c>
+      <c r="W14">
+        <v>350425494950</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.48538089575901705</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.552270323845099</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.57119108260777329</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.65872264852181228</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.63167081970200278</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.65931916165421633</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.69031280551942831</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.68212334362079829</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.68037279695565245</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.6689994718558343</v>
+      </c>
+      <c r="N15">
+        <v>1538057</v>
+      </c>
+      <c r="O15">
+        <v>5043614</v>
+      </c>
+      <c r="P15">
+        <v>20425300</v>
+      </c>
+      <c r="Q15">
+        <v>82376564</v>
+      </c>
+      <c r="R15">
+        <v>322066307</v>
+      </c>
+      <c r="S15">
+        <v>1282542764</v>
+      </c>
+      <c r="T15">
+        <v>4918742854</v>
+      </c>
+      <c r="U15">
+        <v>19273623083</v>
+      </c>
+      <c r="V15">
+        <v>78993125900</v>
+      </c>
+      <c r="W15">
+        <v>325729736550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.52758213421546885</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.52450030010770987</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.52819077510981882</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.55062413830813062</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.56333307928545706</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.59218357021561663</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.61871996804611207</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.61615448072299783</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.62233614564480655</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.58380682412493135</v>
+      </c>
+      <c r="N16">
+        <v>1673641</v>
+      </c>
+      <c r="O16">
+        <v>5105855</v>
+      </c>
+      <c r="P16">
+        <v>18329783</v>
+      </c>
+      <c r="Q16">
+        <v>72641777</v>
+      </c>
+      <c r="R16">
+        <v>285564823</v>
+      </c>
+      <c r="S16">
+        <v>1178307758</v>
+      </c>
+      <c r="T16">
+        <v>4643888597</v>
+      </c>
+      <c r="U16">
+        <v>18259532350</v>
+      </c>
+      <c r="V16">
+        <v>72826053033</v>
+      </c>
+      <c r="W16">
+        <v>302954398750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.45497700763272847</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.54205433983307549</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.51930254565241563</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.51335955905406017</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.5258768415216879</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.53446929854463032</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.56379257453714759</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.56676081473563245</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.56930457015518976</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.53834497659493996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.36585384798771065</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.46851580195677317</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.50633695445276139</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.50938590062299827</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.51895856497002779</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.50903065088704946</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.52251616491565889</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.52345768489793776</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.54032523387844822</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.50646432963989108</v>
+      </c>
+      <c r="N18" s="2">
+        <f>N3*0.000001</f>
+        <v>0.23256099999999999</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" ref="O18:W18" si="0">O3*0.000001</f>
+        <v>0.32148299999999996</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.65214799999999995</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.144973</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9741659999999999</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2187640000000002</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="0"/>
+        <v>36.788725999999997</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>135.55812899999998</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="0"/>
+        <v>500.50865799999997</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="0"/>
+        <v>2100.3735917058821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="N19" s="2">
+        <f t="shared" ref="N19:W19" si="1">N4*0.000001</f>
+        <v>0.222383</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.30677699999999997</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.61182099999999995</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0647219999999999</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9367789999999998</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="1"/>
+        <v>9.162488999999999</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="1"/>
+        <v>34.392488999999998</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="1"/>
+        <v>134.49409499999999</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="1"/>
+        <v>489.24048099999999</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="1"/>
+        <v>2051.0841519999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4096</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F20" s="1">
+        <v>16384</v>
+      </c>
+      <c r="G20" s="1">
+        <v>32768</v>
+      </c>
+      <c r="H20" s="1">
+        <v>65536</v>
+      </c>
+      <c r="I20" s="1">
+        <v>131072</v>
+      </c>
+      <c r="J20" s="1">
+        <v>262144</v>
+      </c>
+      <c r="K20" s="1">
+        <v>524288</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ref="N20:W20" si="2">N5*0.000001</f>
+        <v>0.132017</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19403799999999999</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.29595499999999997</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.71562999999999999</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8905459999999998</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="2"/>
+        <v>8.7208509999999997</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="2"/>
+        <v>53.158386</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="2"/>
+        <v>120.636308</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="2"/>
+        <v>471.306195</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="2"/>
+        <v>1902.5731059999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>512</v>
+      </c>
+      <c r="B21" s="2">
+        <v>227.1103515625</v>
+      </c>
+      <c r="C21" s="2">
+        <v>156.97412109375</v>
+      </c>
+      <c r="D21" s="2">
+        <v>159.2158203125</v>
+      </c>
+      <c r="E21" s="2">
+        <v>139.7672119140625</v>
+      </c>
+      <c r="F21" s="2">
+        <v>120.4935302734375</v>
+      </c>
+      <c r="G21" s="2">
+        <v>281.3343505859375</v>
+      </c>
+      <c r="H21" s="2">
+        <v>561.35140991210937</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1034.226448059082</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1909.2890090942383</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4006.1446985356947</v>
+      </c>
+      <c r="N21" s="2">
+        <f t="shared" ref="N21:W21" si="3">N6*0.000001</f>
+        <v>0.131746</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17244399999999999</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.276897</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64549299999999998</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8623999999999998</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2587599999999997</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="3"/>
+        <v>31.744532999999997</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="3"/>
+        <v>118.25498499999999</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="3"/>
+        <v>451.687006</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="3"/>
+        <v>1901.846008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>256</v>
+      </c>
+      <c r="B22" s="2">
+        <v>217.1708984375</v>
+      </c>
+      <c r="C22" s="2">
+        <v>149.79345703125</v>
+      </c>
+      <c r="D22" s="2">
+        <v>149.370361328125</v>
+      </c>
+      <c r="E22" s="2">
+        <v>129.970947265625</v>
+      </c>
+      <c r="F22" s="2">
+        <v>118.21160888671875</v>
+      </c>
+      <c r="G22" s="2">
+        <v>279.61697387695312</v>
+      </c>
+      <c r="H22" s="2">
+        <v>524.78773498535156</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1026.108512878418</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1866.3043251037598</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3912.1325531005859</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" ref="N22:W22" si="4">N7*0.000001</f>
+        <v>0.10975399999999999</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.156527</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.28934299999999996</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.64037599999999995</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.832538</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2554299999999996</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="4"/>
+        <v>28.107859999999999</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="4"/>
+        <v>116.33740899999999</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="4"/>
+        <v>451.34764300000001</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="4"/>
+        <v>1899.1334509999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>128</v>
+      </c>
+      <c r="B23" s="2">
+        <v>128.9228515625</v>
+      </c>
+      <c r="C23" s="2">
+        <v>94.7451171875</v>
+      </c>
+      <c r="D23" s="2">
+        <v>72.254638671875</v>
+      </c>
+      <c r="E23" s="2">
+        <v>87.357177734375</v>
+      </c>
+      <c r="F23" s="2">
+        <v>115.3897705078125</v>
+      </c>
+      <c r="G23" s="2">
+        <v>266.13925170898437</v>
+      </c>
+      <c r="H23" s="2">
+        <v>811.13259887695312</v>
+      </c>
+      <c r="I23" s="2">
+        <v>920.38198852539062</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1797.890453338623</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3628.8702125549316</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" ref="N23:W23" si="5">N8*0.000001</f>
+        <v>0.15012899999999998</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22393399999999999</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.46363099999999996</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4677829999999998</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="5"/>
+        <v>3.5614309999999998</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="5"/>
+        <v>13.522181</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="5"/>
+        <v>63.055636999999997</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="5"/>
+        <v>222.64503099999999</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="5"/>
+        <v>917.32827199999997</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>64</v>
+      </c>
+      <c r="B24" s="2">
+        <v>128.658203125</v>
+      </c>
+      <c r="C24" s="2">
+        <v>84.201171875</v>
+      </c>
+      <c r="D24" s="2">
+        <v>67.601806640625</v>
+      </c>
+      <c r="E24" s="2">
+        <v>78.7955322265625</v>
+      </c>
+      <c r="F24" s="2">
+        <v>113.671875</v>
+      </c>
+      <c r="G24" s="2">
+        <v>221.519775390625</v>
+      </c>
+      <c r="H24" s="2">
+        <v>484.38313293457031</v>
+      </c>
+      <c r="I24" s="2">
+        <v>902.21393585205078</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1723.049186706543</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3627.4833831787109</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:W24" si="6">N9*0.000001</f>
+        <v>4.8984639999999997</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="6"/>
+        <v>19.13739</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="6"/>
+        <v>74.248372000000003</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="6"/>
+        <v>296.02157599999998</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="6"/>
+        <v>1185.5704859999998</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="6"/>
+        <v>4798.3581199999999</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="6"/>
+        <v>19412.05488</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="6"/>
+        <v>76464.740250000003</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="6"/>
+        <v>314798.0331</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="6"/>
+        <v>1227484.7717949999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2">
+        <v>107.181640625</v>
+      </c>
+      <c r="C25" s="2">
+        <v>76.42919921875</v>
+      </c>
+      <c r="D25" s="2">
+        <v>70.640380859375</v>
+      </c>
+      <c r="E25" s="2">
+        <v>78.1708984375</v>
+      </c>
+      <c r="F25" s="2">
+        <v>111.8492431640625</v>
+      </c>
+      <c r="G25" s="2">
+        <v>221.41815185546875</v>
+      </c>
+      <c r="H25" s="2">
+        <v>428.89190673828125</v>
+      </c>
+      <c r="I25" s="2">
+        <v>887.58399200439453</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1721.7546195983887</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3622.309591293335</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25:W25" si="7">N10*0.000001</f>
+        <v>2.5095190000000001</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="7"/>
+        <v>9.8254439999999992</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="7"/>
+        <v>39.221322000000001</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" si="7"/>
+        <v>155.13299999999998</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="7"/>
+        <v>613.81983300000002</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="7"/>
+        <v>2451.838452</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="7"/>
+        <v>9838.8450809999995</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="7"/>
+        <v>40324.5357</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="7"/>
+        <v>167580.2935</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="7"/>
+        <v>797311.54219999991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2">
+        <v>146.6103515625</v>
+      </c>
+      <c r="C26" s="2">
+        <v>109.3427734375</v>
+      </c>
+      <c r="D26" s="2">
+        <v>113.191162109375</v>
+      </c>
+      <c r="E26" s="2">
+        <v>179.1727294921875</v>
+      </c>
+      <c r="F26" s="2">
+        <v>217.37249755859375</v>
+      </c>
+      <c r="G26" s="2">
+        <v>412.66421508789063</v>
+      </c>
+      <c r="H26" s="2">
+        <v>962.15266418457031</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1698.6467819213867</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3499.3296508789062</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="N26" s="2">
+        <f t="shared" ref="N26:W26" si="8">N11*0.000001</f>
+        <v>2.180107</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="8"/>
+        <v>9.1927209999999988</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="8"/>
+        <v>31.041063999999999</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="8"/>
+        <v>119.76902799999999</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="8"/>
+        <v>455.58022799999998</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="8"/>
+        <v>1821.590571</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="8"/>
+        <v>7185.3608439999998</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="8"/>
+        <v>27788.973524999998</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="8"/>
+        <v>115910.6945</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="8"/>
+        <v>496237.94949999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <f t="shared" ref="N27:W27" si="9">N12*0.000001</f>
+        <v>1.673719</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="9"/>
+        <v>7.0443689999999997</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="9"/>
+        <v>22.303958999999999</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="9"/>
+        <v>98.298734999999994</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="9"/>
+        <v>410.32462399999997</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="9"/>
+        <v>1597.9908889999999</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="9"/>
+        <v>5535.9618819999996</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="9"/>
+        <v>21020.14688</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="9"/>
+        <v>95596.341799999995</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="9"/>
+        <v>377586.19069999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <f t="shared" ref="N28:W28" si="10">N13*0.000001</f>
+        <v>2.0183999999999997</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="10"/>
+        <v>6.9304429999999995</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="10"/>
+        <v>25.997734999999999</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" si="10"/>
+        <v>89.877454999999998</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="10"/>
+        <v>375.37604999999996</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="10"/>
+        <v>1455.5494209999999</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="10"/>
+        <v>5624.1329219999998</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="10"/>
+        <v>22419.622775</v>
+      </c>
+      <c r="V28" s="2">
+        <f t="shared" si="10"/>
+        <v>92536.925199999998</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="10"/>
+        <v>366961.35749999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <f t="shared" ref="N29:W29" si="11">N14*0.000001</f>
+        <v>1.5474569999999999</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="11"/>
+        <v>6.0811500000000001</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="11"/>
+        <v>23.428521</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" si="11"/>
+        <v>89.601827999999998</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="11"/>
+        <v>350.76065699999998</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="11"/>
+        <v>1350.4703499999998</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="11"/>
+        <v>5229.0901329999997</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="11"/>
+        <v>20683.325000000001</v>
+      </c>
+      <c r="V29" s="2">
+        <f t="shared" si="11"/>
+        <v>84305.466132999994</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="11"/>
+        <v>350425.49494999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N30" s="2">
+        <f t="shared" ref="N30:W30" si="12">N15*0.000001</f>
+        <v>1.538057</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="12"/>
+        <v>5.0436139999999998</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="12"/>
+        <v>20.4253</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="12"/>
+        <v>82.376564000000002</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="12"/>
+        <v>322.06630699999999</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="12"/>
+        <v>1282.542764</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="12"/>
+        <v>4918.7428540000001</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="12"/>
+        <v>19273.623082999999</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" si="12"/>
+        <v>78993.125899999999</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="12"/>
+        <v>325729.73654999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N31" s="2">
+        <f t="shared" ref="N31:W31" si="13">N16*0.000001</f>
+        <v>1.6736409999999999</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="13"/>
+        <v>5.105855</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="13"/>
+        <v>18.329782999999999</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" si="13"/>
+        <v>72.64177699999999</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="13"/>
+        <v>285.56482299999999</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="13"/>
+        <v>1178.3077579999999</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" si="13"/>
+        <v>4643.8885970000001</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="13"/>
+        <v>18259.532349999998</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="13"/>
+        <v>72826.053033000004</v>
+      </c>
+      <c r="W31" s="2">
+        <f t="shared" si="13"/>
+        <v>302954.39874999999</v>
+      </c>
+    </row>
+    <row r="34" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N34" s="5">
+        <v>0.23256099999999999</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.32148299999999996</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.65214799999999995</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>1.144973</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1.9741659999999999</v>
+      </c>
+      <c r="S34" s="5">
+        <v>9.2187640000000002</v>
+      </c>
+      <c r="T34" s="5">
+        <v>36.788725999999997</v>
+      </c>
+      <c r="U34" s="5">
+        <v>135.55812899999998</v>
+      </c>
+      <c r="V34" s="5">
+        <v>500.50865799999997</v>
+      </c>
+      <c r="W34" s="5">
+        <v>2100.3735917058821</v>
+      </c>
+    </row>
+    <row r="35" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N35" s="5">
+        <v>0.222383</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.30677699999999997</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.61182099999999995</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>1.0647219999999999</v>
+      </c>
+      <c r="R35" s="5">
+        <v>1.9367789999999998</v>
+      </c>
+      <c r="S35" s="5">
+        <v>9.162488999999999</v>
+      </c>
+      <c r="T35" s="5">
+        <v>34.392488999999998</v>
+      </c>
+      <c r="U35" s="5">
+        <v>134.49409499999999</v>
+      </c>
+      <c r="V35" s="5">
+        <v>489.24048099999999</v>
+      </c>
+      <c r="W35" s="5">
+        <v>2051.0841519999999</v>
+      </c>
+    </row>
+    <row r="36" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N36" s="5">
+        <v>0.132017</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.19403799999999999</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.29595499999999997</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.71562999999999999</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1.8905459999999998</v>
+      </c>
+      <c r="S36" s="5">
+        <v>8.7208509999999997</v>
+      </c>
+      <c r="T36" s="5">
+        <v>53.158386</v>
+      </c>
+      <c r="U36" s="5">
+        <v>120.636308</v>
+      </c>
+      <c r="V36" s="5">
+        <v>471.306195</v>
+      </c>
+      <c r="W36" s="5">
+        <v>1902.5731059999998</v>
+      </c>
+    </row>
+    <row r="37" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N37" s="5">
+        <v>0.131746</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.17244399999999999</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.276897</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.64549299999999998</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1.8623999999999998</v>
+      </c>
+      <c r="S37" s="5">
+        <v>7.2587599999999997</v>
+      </c>
+      <c r="T37" s="5">
+        <v>31.744532999999997</v>
+      </c>
+      <c r="U37" s="5">
+        <v>118.25498499999999</v>
+      </c>
+      <c r="V37" s="5">
+        <v>451.687006</v>
+      </c>
+      <c r="W37" s="5">
+        <v>1901.846008</v>
+      </c>
+    </row>
+    <row r="38" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N38" s="5">
+        <v>0.10975399999999999</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.156527</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.28934299999999996</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0.64037599999999995</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1.832538</v>
+      </c>
+      <c r="S38" s="5">
+        <v>7.2554299999999996</v>
+      </c>
+      <c r="T38" s="5">
+        <v>28.107859999999999</v>
+      </c>
+      <c r="U38" s="5">
+        <v>116.33740899999999</v>
+      </c>
+      <c r="V38" s="5">
+        <v>451.34764300000001</v>
+      </c>
+      <c r="W38" s="5">
+        <v>1899.1334509999999</v>
+      </c>
+    </row>
+    <row r="39" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N39" s="5">
+        <v>0.15012899999999998</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.22393399999999999</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.46363099999999996</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>1.4677829999999998</v>
+      </c>
+      <c r="R39" s="5">
+        <v>3.5614309999999998</v>
+      </c>
+      <c r="S39" s="5">
+        <v>13.522181</v>
+      </c>
+      <c r="T39" s="5">
+        <v>63.055636999999997</v>
+      </c>
+      <c r="U39" s="5">
+        <v>222.64503099999999</v>
+      </c>
+      <c r="V39" s="5">
+        <v>917.32827199999997</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N40" s="5">
+        <v>4.8984639999999997</v>
+      </c>
+      <c r="O40" s="5">
+        <v>19.13739</v>
+      </c>
+      <c r="P40" s="5">
+        <v>74.248372000000003</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>296.02157599999998</v>
+      </c>
+      <c r="R40" s="5">
+        <v>1185.5704859999998</v>
+      </c>
+      <c r="S40" s="5">
+        <v>4798.3581199999999</v>
+      </c>
+      <c r="T40" s="5">
+        <v>19412.05488</v>
+      </c>
+      <c r="U40" s="5">
+        <v>76464.740250000003</v>
+      </c>
+      <c r="V40" s="5">
+        <v>314798.0331</v>
+      </c>
+      <c r="W40" s="5">
+        <v>1227484</v>
+      </c>
+    </row>
+    <row r="41" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N41" s="5">
+        <v>2.5095190000000001</v>
+      </c>
+      <c r="O41" s="5">
+        <v>9.8254439999999992</v>
+      </c>
+      <c r="P41" s="5">
+        <v>39.221322000000001</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>155.13299999999998</v>
+      </c>
+      <c r="R41" s="5">
+        <v>613.81983300000002</v>
+      </c>
+      <c r="S41" s="5">
+        <v>2451.838452</v>
+      </c>
+      <c r="T41" s="5">
+        <v>9838.8450809999995</v>
+      </c>
+      <c r="U41" s="5">
+        <v>40324.5357</v>
+      </c>
+      <c r="V41" s="5">
+        <v>167580.2935</v>
+      </c>
+      <c r="W41" s="5">
+        <v>797311.54219999991</v>
+      </c>
+    </row>
+    <row r="42" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N42" s="5">
+        <v>2.180107</v>
+      </c>
+      <c r="O42" s="5">
+        <v>9.1927209999999988</v>
+      </c>
+      <c r="P42" s="5">
+        <v>31.041063999999999</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>119.76902799999999</v>
+      </c>
+      <c r="R42" s="5">
+        <v>455.58022799999998</v>
+      </c>
+      <c r="S42" s="5">
+        <v>1821.590571</v>
+      </c>
+      <c r="T42" s="5">
+        <v>7185.3608439999998</v>
+      </c>
+      <c r="U42" s="5">
+        <v>27788.973524999998</v>
+      </c>
+      <c r="V42" s="5">
+        <v>115910.6945</v>
+      </c>
+      <c r="W42" s="5">
+        <v>496237.94949999999</v>
+      </c>
+    </row>
+    <row r="43" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N43" s="5">
+        <v>1.673719</v>
+      </c>
+      <c r="O43" s="5">
+        <v>7.0443689999999997</v>
+      </c>
+      <c r="P43" s="5">
+        <v>22.303958999999999</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>98.298734999999994</v>
+      </c>
+      <c r="R43" s="5">
+        <v>410.32462399999997</v>
+      </c>
+      <c r="S43" s="5">
+        <v>1597.9908889999999</v>
+      </c>
+      <c r="T43" s="5">
+        <v>5535.9618819999996</v>
+      </c>
+      <c r="U43" s="5">
+        <v>21020.14688</v>
+      </c>
+      <c r="V43" s="5">
+        <v>95596.341799999995</v>
+      </c>
+      <c r="W43" s="5">
+        <v>377586.19069999998</v>
+      </c>
+    </row>
+    <row r="44" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N44" s="5">
+        <v>2.0183999999999997</v>
+      </c>
+      <c r="O44" s="5">
+        <v>6.9304429999999995</v>
+      </c>
+      <c r="P44" s="5">
+        <v>25.997734999999999</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>89.877454999999998</v>
+      </c>
+      <c r="R44" s="5">
+        <v>375.37604999999996</v>
+      </c>
+      <c r="S44" s="5">
+        <v>1455.5494209999999</v>
+      </c>
+      <c r="T44" s="5">
+        <v>5624.1329219999998</v>
+      </c>
+      <c r="U44" s="5">
+        <v>22419.622775</v>
+      </c>
+      <c r="V44" s="5">
+        <v>92536.925199999998</v>
+      </c>
+      <c r="W44" s="5">
+        <v>366961.35749999998</v>
+      </c>
+    </row>
+    <row r="45" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N45" s="5">
+        <v>1.5474569999999999</v>
+      </c>
+      <c r="O45" s="5">
+        <v>6.0811500000000001</v>
+      </c>
+      <c r="P45" s="5">
+        <v>23.428521</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>89.601827999999998</v>
+      </c>
+      <c r="R45" s="5">
+        <v>350.76065699999998</v>
+      </c>
+      <c r="S45" s="5">
+        <v>1350.4703499999998</v>
+      </c>
+      <c r="T45" s="5">
+        <v>5229.0901329999997</v>
+      </c>
+      <c r="U45" s="5">
+        <v>20683.325000000001</v>
+      </c>
+      <c r="V45" s="5">
+        <v>84305.466132999994</v>
+      </c>
+      <c r="W45" s="5">
+        <v>350425.49494999996</v>
+      </c>
+    </row>
+    <row r="46" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N46" s="5">
+        <v>1.538057</v>
+      </c>
+      <c r="O46" s="5">
+        <v>5.0436139999999998</v>
+      </c>
+      <c r="P46" s="5">
+        <v>20.4253</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>82.376564000000002</v>
+      </c>
+      <c r="R46" s="5">
+        <v>322.06630699999999</v>
+      </c>
+      <c r="S46" s="5">
+        <v>1282.542764</v>
+      </c>
+      <c r="T46" s="5">
+        <v>4918.7428540000001</v>
+      </c>
+      <c r="U46" s="5">
+        <v>19273.623082999999</v>
+      </c>
+      <c r="V46" s="5">
+        <v>78993.125899999999</v>
+      </c>
+      <c r="W46" s="5">
+        <v>325729.73654999997</v>
+      </c>
+    </row>
+    <row r="47" spans="14:23" x14ac:dyDescent="0.25">
+      <c r="N47" s="5">
+        <v>1.6736409999999999</v>
+      </c>
+      <c r="O47" s="5">
+        <v>5.105855</v>
+      </c>
+      <c r="P47" s="5">
+        <v>18.329782999999999</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>72.64177699999999</v>
+      </c>
+      <c r="R47" s="5">
+        <v>285.56482299999999</v>
+      </c>
+      <c r="S47" s="5">
+        <v>1178.3077579999999</v>
+      </c>
+      <c r="T47" s="5">
+        <v>4643.8885970000001</v>
+      </c>
+      <c r="U47" s="5">
+        <v>18259.532349999998</v>
+      </c>
+      <c r="V47" s="5">
+        <v>72826.053033000004</v>
+      </c>
+      <c r="W47" s="5">
+        <v>302954.39874999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B19:K19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:K9">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:K18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:K26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cw2.xlsx
+++ b/cw2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -149,22 +149,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -773,11 +825,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1166252720"/>
-        <c:axId val="-1166259248"/>
+        <c:axId val="1088202304"/>
+        <c:axId val="1088197952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1166252720"/>
+        <c:axId val="1088202304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166259248"/>
+        <c:crossAx val="1088197952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1166259248"/>
+        <c:axId val="1088197952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2200000000"/>
@@ -1002,7 +1054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1166252720"/>
+        <c:crossAx val="1088202304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1686,11 +1738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1168474672"/>
-        <c:axId val="-1168506224"/>
+        <c:axId val="1088201760"/>
+        <c:axId val="935267376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1168474672"/>
+        <c:axId val="1088201760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1168506224"/>
+        <c:crossAx val="935267376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1804,7 +1856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1168506224"/>
+        <c:axId val="935267376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1168474672"/>
+        <c:crossAx val="1088201760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2048,7 +2100,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2545,11 +2596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1358728000"/>
-        <c:axId val="-1358737792"/>
+        <c:axId val="935274448"/>
+        <c:axId val="935261936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1358728000"/>
+        <c:axId val="935274448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2653,7 +2703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1358737792"/>
+        <c:crossAx val="935261936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2661,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1358737792"/>
+        <c:axId val="935261936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2768,7 +2817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1358728000"/>
+        <c:crossAx val="935274448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2782,7 +2831,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2889,7 +2937,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3434,11 +3481,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1145325584"/>
-        <c:axId val="-1145315792"/>
+        <c:axId val="935272816"/>
+        <c:axId val="934454240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1145325584"/>
+        <c:axId val="935272816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +3517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3537,7 +3583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1145315792"/>
+        <c:crossAx val="934454240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3545,7 +3591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1145315792"/>
+        <c:axId val="934454240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,7 +3637,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3652,7 +3697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1145325584"/>
+        <c:crossAx val="935272816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3666,7 +3711,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4506,11 +4550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1168501872"/>
-        <c:axId val="-1168490992"/>
+        <c:axId val="1143712240"/>
+        <c:axId val="1143709520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1168501872"/>
+        <c:axId val="1143712240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4609,7 +4653,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1168490992"/>
+        <c:crossAx val="1143709520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4617,7 +4661,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1168490992"/>
+        <c:axId val="1143709520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,7 +4773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1168501872"/>
+        <c:crossAx val="1143712240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5583,11 +5627,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1145321232"/>
-        <c:axId val="-1145337008"/>
+        <c:axId val="1143702992"/>
+        <c:axId val="1143710064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1145321232"/>
+        <c:axId val="1143702992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,7 +5730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1145337008"/>
+        <c:crossAx val="1143710064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5694,7 +5738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1145337008"/>
+        <c:axId val="1143710064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,7 +5845,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1145321232"/>
+        <c:crossAx val="1143702992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6531,11 +6575,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-889012560"/>
-        <c:axId val="-889032688"/>
+        <c:axId val="1143707344"/>
+        <c:axId val="1143713328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-889012560"/>
+        <c:axId val="1143707344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6578,7 +6622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889032688"/>
+        <c:crossAx val="1143713328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6586,7 +6630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-889032688"/>
+        <c:axId val="1143713328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6637,7 +6681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-889012560"/>
+        <c:crossAx val="1143707344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11094,8 +11138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="C2:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11107,9 +11151,10 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11144,7 +11189,7 @@
         <v>524288</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -11182,7 +11227,7 @@
         <v>2100373591.7058823</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11220,7 +11265,7 @@
         <v>2051084152</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -11258,7 +11303,7 @@
         <v>1902573106</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -11296,7 +11341,7 @@
         <v>1901846008</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -11334,7 +11379,7 @@
         <v>1899133451</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -11369,7 +11414,7 @@
         <v>917328272</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -11407,7 +11452,7 @@
         <v>1227484771795</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11445,7 +11490,7 @@
         <v>797311542200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -11483,7 +11528,7 @@
         <v>496237949500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -11520,8 +11565,11 @@
       <c r="L11">
         <v>377586190700</v>
       </c>
+      <c r="N11" s="6">
+        <v>16000000</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -11559,7 +11607,7 @@
         <v>366961357500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -11597,7 +11645,7 @@
         <v>350425494950</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -11635,7 +11683,7 @@
         <v>325729736550</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -11671,24 +11719,66 @@
       </c>
       <c r="L15">
         <v>302954398750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" ref="C16:K16" si="0">C15/C6</f>
+        <v>15.249020536836927</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>32.61964389530241</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>63.349668041044708</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>113.43613283445976</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>155.83023271550167</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>162.40357332370377</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>165.21672574859844</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>156.95323204249803</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>161.35246115154743</v>
+      </c>
+      <c r="L16">
+        <f>L15/L6</f>
+        <v>159.52243829441136</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
@@ -11727,43 +11817,43 @@
         <v>2</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19:L24" si="0">C$8/C9</f>
+        <f t="shared" ref="C19:L23" si="1">C$8/C9</f>
         <v>1.9519533424532749</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9477379342857177</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8930614322485102</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9081792784256091</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9314633093649158</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9570449741849469</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9730013756885985</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8962336186303566</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8784907612063586</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5395296654153967</v>
       </c>
       <c r="X19" s="2"/>
@@ -11773,43 +11863,43 @@
         <v>3</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2468915516531989</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0817981966384056</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3919403020463474</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4716037271338629</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.60233085883613</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6341584088052463</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7016116937550421</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.751621616437522</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.715867025540081</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4735810169935419</v>
       </c>
       <c r="X20" s="2"/>
@@ -11819,43 +11909,43 @@
         <v>4</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9266943853777128</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7166932907688395</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3289324106092555</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0114484789656752</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8893476449027342</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.002744354195126</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5065369476472852</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6376881991606713</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2929924636509469</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2508730510493216</v>
       </c>
       <c r="X21" s="2"/>
@@ -11865,43 +11955,43 @@
         <v>5</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4269044787950853</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7613516192254952</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8559554130388665</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2936132426090614</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.158354098510014</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2965958082710816</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4515640275971413</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4106167181039915</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4018639847782621</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3449973592791715</v>
       </c>
       <c r="X22" s="2"/>
@@ -11911,43 +12001,43 @@
         <v>6</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1654928052928129</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1470018006462595</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1691446506589127</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3037448298487839</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3799984757127421</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5531014212936998</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7123198082766726</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6969268843379872</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7340168738688395</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5028409447495878</v>
       </c>
       <c r="X23" s="2"/>
@@ -11961,39 +12051,39 @@
         <v>3.1848390534290991</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:L24" si="1">D$8/D14</f>
+        <f t="shared" ref="D24:L24" si="2">D$8/D14</f>
         <v>3.7943803788315282</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6351178195669096</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5935169133784215</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6811378906518155</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7412850898124126</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9465480217600333</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9673257031494269</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9851319910863281</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7684148361645797</v>
       </c>
       <c r="X24" s="2"/>
@@ -12007,56 +12097,56 @@
         <v>2.9268307839016852</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:L25" si="2">D$8/D15</f>
+        <f t="shared" ref="D25:L25" si="3">D$8/D15</f>
         <v>3.7481264156541854</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0506956356220911</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0750872049839861</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1516685197602223</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0722452070963957</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1801293193252711</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.1876614791835021</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3226018710275858</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.0517146371191286</v>
       </c>
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
@@ -12095,43 +12185,43 @@
         <v>2</v>
       </c>
       <c r="C28" s="2">
-        <f>C19/$B19</f>
+        <f t="shared" ref="C28:L28" si="4">C19/$B19</f>
         <v>0.97597667122663745</v>
       </c>
       <c r="D28" s="2">
-        <f>D19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.97386896714285887</v>
       </c>
       <c r="E28" s="2">
-        <f>E19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.9465307161242551</v>
       </c>
       <c r="F28" s="2">
-        <f>F19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.95408963921280454</v>
       </c>
       <c r="G28" s="2">
-        <f>G19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.96573165468245792</v>
       </c>
       <c r="H28" s="2">
-        <f>H19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.97852248709247347</v>
       </c>
       <c r="I28" s="2">
-        <f>I19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.98650068784429923</v>
       </c>
       <c r="J28" s="2">
-        <f>J19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.94811680931517828</v>
       </c>
       <c r="K28" s="2">
-        <f>K19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.9392453806031793</v>
       </c>
       <c r="L28" s="2">
-        <f>L19/$B19</f>
+        <f t="shared" si="4"/>
         <v>0.76976483270769835</v>
       </c>
     </row>
@@ -12140,43 +12230,43 @@
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <f>C20/$B20</f>
+        <f t="shared" ref="C29:L29" si="5">C20/$B20</f>
         <v>0.74896385055106629</v>
       </c>
       <c r="D29" s="2">
-        <f>D20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.69393273221280183</v>
       </c>
       <c r="E29" s="2">
-        <f>E20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.79731343401544919</v>
       </c>
       <c r="F29" s="2">
-        <f>F20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.82386790904462093</v>
       </c>
       <c r="G29" s="2">
-        <f>G20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.8674436196120433</v>
       </c>
       <c r="H29" s="2">
-        <f>H20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.87805280293508214</v>
       </c>
       <c r="I29" s="2">
-        <f>I20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.90053723125168073</v>
       </c>
       <c r="J29" s="2">
-        <f>J20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.917207205479174</v>
       </c>
       <c r="K29" s="2">
-        <f>K20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.90528900851336036</v>
       </c>
       <c r="L29" s="2">
-        <f>L20/$B20</f>
+        <f t="shared" si="5"/>
         <v>0.82452700566451398</v>
       </c>
     </row>
@@ -12185,43 +12275,43 @@
         <v>4</v>
       </c>
       <c r="C30" s="2">
-        <f>C21/$B21</f>
+        <f t="shared" ref="C30:L30" si="6">C21/$B21</f>
         <v>0.73167359634442819</v>
       </c>
       <c r="D30" s="2">
-        <f>D21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.67917332269220987</v>
       </c>
       <c r="E30" s="2">
-        <f>E21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.83223310265231387</v>
       </c>
       <c r="F30" s="2">
-        <f>F21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.75286211974141881</v>
       </c>
       <c r="G30" s="2">
-        <f>G21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.72233691122568355</v>
       </c>
       <c r="H30" s="2">
-        <f>H21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.75068608854878149</v>
       </c>
       <c r="I30" s="2">
-        <f>I21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.8766342369118213</v>
       </c>
       <c r="J30" s="2">
-        <f>J21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.90942204979016783</v>
       </c>
       <c r="K30" s="2">
-        <f>K21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.82324811591273672</v>
       </c>
       <c r="L30" s="2">
-        <f>L21/$B21</f>
+        <f t="shared" si="6"/>
         <v>0.81271826276233039</v>
       </c>
     </row>
@@ -12230,43 +12320,43 @@
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <f>C22/$B22</f>
+        <f t="shared" ref="C31:L31" si="7">C22/$B22</f>
         <v>0.48538089575901705</v>
       </c>
       <c r="D31" s="2">
-        <f>D22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.552270323845099</v>
       </c>
       <c r="E31" s="2">
-        <f>E22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.57119108260777329</v>
       </c>
       <c r="F31" s="2">
-        <f>F22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.65872264852181228</v>
       </c>
       <c r="G31" s="2">
-        <f>G22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.63167081970200278</v>
       </c>
       <c r="H31" s="2">
-        <f>H22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.65931916165421633</v>
       </c>
       <c r="I31" s="2">
-        <f>I22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.69031280551942831</v>
       </c>
       <c r="J31" s="2">
-        <f>J22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.68212334362079829</v>
       </c>
       <c r="K31" s="2">
-        <f>K22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.68037279695565245</v>
       </c>
       <c r="L31" s="2">
-        <f>L22/$B22</f>
+        <f t="shared" si="7"/>
         <v>0.6689994718558343</v>
       </c>
     </row>
@@ -12275,43 +12365,43 @@
         <v>6</v>
       </c>
       <c r="C32" s="2">
-        <f>C23/$B23</f>
+        <f t="shared" ref="C32:L32" si="8">C23/$B23</f>
         <v>0.52758213421546885</v>
       </c>
       <c r="D32" s="2">
-        <f>D23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.52450030010770987</v>
       </c>
       <c r="E32" s="2">
-        <f>E23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.52819077510981882</v>
       </c>
       <c r="F32" s="2">
-        <f>F23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.55062413830813062</v>
       </c>
       <c r="G32" s="2">
-        <f>G23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.56333307928545706</v>
       </c>
       <c r="H32" s="2">
-        <f>H23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.59218357021561663</v>
       </c>
       <c r="I32" s="2">
-        <f>I23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.61871996804611207</v>
       </c>
       <c r="J32" s="2">
-        <f>J23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.61615448072299783</v>
       </c>
       <c r="K32" s="2">
-        <f>K23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.62233614564480655</v>
       </c>
       <c r="L32" s="2">
-        <f>L23/$B23</f>
+        <f t="shared" si="8"/>
         <v>0.58380682412493135</v>
       </c>
     </row>
@@ -12320,43 +12410,43 @@
         <v>7</v>
       </c>
       <c r="C33" s="2">
-        <f>C24/$B24</f>
+        <f t="shared" ref="C33:L33" si="9">C24/$B24</f>
         <v>0.45497700763272847</v>
       </c>
       <c r="D33" s="2">
-        <f>D24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.54205433983307549</v>
       </c>
       <c r="E33" s="2">
-        <f>E24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.51930254565241563</v>
       </c>
       <c r="F33" s="2">
-        <f>F24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.51335955905406017</v>
       </c>
       <c r="G33" s="2">
-        <f>G24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.5258768415216879</v>
       </c>
       <c r="H33" s="2">
-        <f>H24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.53446929854463032</v>
       </c>
       <c r="I33" s="2">
-        <f>I24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.56379257453714759</v>
       </c>
       <c r="J33" s="2">
-        <f>J24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.56676081473563245</v>
       </c>
       <c r="K33" s="2">
-        <f>K24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.56930457015518976</v>
       </c>
       <c r="L33" s="2">
-        <f>L24/$B24</f>
+        <f t="shared" si="9"/>
         <v>0.53834497659493996</v>
       </c>
     </row>
@@ -12365,59 +12455,59 @@
         <v>8</v>
       </c>
       <c r="C34" s="2">
-        <f>C25/$B25</f>
+        <f t="shared" ref="C34:L34" si="10">C25/$B25</f>
         <v>0.36585384798771065</v>
       </c>
       <c r="D34" s="2">
-        <f>D25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.46851580195677317</v>
       </c>
       <c r="E34" s="2">
-        <f>E25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.50633695445276139</v>
       </c>
       <c r="F34" s="2">
-        <f>F25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.50938590062299827</v>
       </c>
       <c r="G34" s="2">
-        <f>G25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.51895856497002779</v>
       </c>
       <c r="H34" s="2">
-        <f>H25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.50903065088704946</v>
       </c>
       <c r="I34" s="2">
-        <f>I25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.52251616491565889</v>
       </c>
       <c r="J34" s="2">
-        <f>J25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.52345768489793776</v>
       </c>
       <c r="K34" s="2">
-        <f>K25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.54032523387844822</v>
       </c>
       <c r="L34" s="2">
-        <f>L25/$B25</f>
+        <f t="shared" si="10"/>
         <v>0.50646432963989108</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
@@ -12456,43 +12546,43 @@
         <v>512</v>
       </c>
       <c r="C37" s="2">
-        <f>C2/C$1</f>
+        <f t="shared" ref="C37:L37" si="11">C2/C$1</f>
         <v>227.1103515625</v>
       </c>
       <c r="D37" s="2">
-        <f>D2/D$1</f>
+        <f t="shared" si="11"/>
         <v>156.97412109375</v>
       </c>
       <c r="E37" s="2">
-        <f>E2/E$1</f>
+        <f t="shared" si="11"/>
         <v>159.2158203125</v>
       </c>
       <c r="F37" s="2">
-        <f>F2/F$1</f>
+        <f t="shared" si="11"/>
         <v>139.7672119140625</v>
       </c>
       <c r="G37" s="2">
-        <f>G2/G$1</f>
+        <f t="shared" si="11"/>
         <v>120.4935302734375</v>
       </c>
       <c r="H37" s="2">
-        <f>H2/H$1</f>
+        <f t="shared" si="11"/>
         <v>281.3343505859375</v>
       </c>
       <c r="I37" s="2">
-        <f>I2/I$1</f>
+        <f t="shared" si="11"/>
         <v>561.35140991210937</v>
       </c>
       <c r="J37" s="2">
-        <f>J2/J$1</f>
+        <f t="shared" si="11"/>
         <v>1034.226448059082</v>
       </c>
       <c r="K37" s="2">
-        <f>K2/K$1</f>
+        <f t="shared" si="11"/>
         <v>1909.2890090942383</v>
       </c>
       <c r="L37" s="2">
-        <f>L2/L$1</f>
+        <f t="shared" si="11"/>
         <v>4006.1446985356947</v>
       </c>
     </row>
@@ -12501,43 +12591,43 @@
         <v>256</v>
       </c>
       <c r="C38" s="2">
-        <f>C3/C$1</f>
+        <f t="shared" ref="C38:L38" si="12">C3/C$1</f>
         <v>217.1708984375</v>
       </c>
       <c r="D38" s="2">
-        <f>D3/D$1</f>
+        <f t="shared" si="12"/>
         <v>149.79345703125</v>
       </c>
       <c r="E38" s="2">
-        <f>E3/E$1</f>
+        <f t="shared" si="12"/>
         <v>149.370361328125</v>
       </c>
       <c r="F38" s="2">
-        <f>F3/F$1</f>
+        <f t="shared" si="12"/>
         <v>129.970947265625</v>
       </c>
       <c r="G38" s="2">
-        <f>G3/G$1</f>
+        <f t="shared" si="12"/>
         <v>118.21160888671875</v>
       </c>
       <c r="H38" s="2">
-        <f>H3/H$1</f>
+        <f t="shared" si="12"/>
         <v>279.61697387695312</v>
       </c>
       <c r="I38" s="2">
-        <f>I3/I$1</f>
+        <f t="shared" si="12"/>
         <v>524.78773498535156</v>
       </c>
       <c r="J38" s="2">
-        <f>J3/J$1</f>
+        <f t="shared" si="12"/>
         <v>1026.108512878418</v>
       </c>
       <c r="K38" s="2">
-        <f>K3/K$1</f>
+        <f t="shared" si="12"/>
         <v>1866.3043251037598</v>
       </c>
       <c r="L38" s="2">
-        <f>L3/L$1</f>
+        <f t="shared" si="12"/>
         <v>3912.1325531005859</v>
       </c>
     </row>
@@ -12546,43 +12636,43 @@
         <v>128</v>
       </c>
       <c r="C39" s="2">
-        <f>C4/C$1</f>
+        <f t="shared" ref="C39:L39" si="13">C4/C$1</f>
         <v>128.9228515625</v>
       </c>
       <c r="D39" s="2">
-        <f>D4/D$1</f>
+        <f t="shared" si="13"/>
         <v>94.7451171875</v>
       </c>
       <c r="E39" s="2">
-        <f>E4/E$1</f>
+        <f t="shared" si="13"/>
         <v>72.254638671875</v>
       </c>
       <c r="F39" s="2">
-        <f>F4/F$1</f>
+        <f t="shared" si="13"/>
         <v>87.357177734375</v>
       </c>
       <c r="G39" s="2">
-        <f>G4/G$1</f>
+        <f t="shared" si="13"/>
         <v>115.3897705078125</v>
       </c>
       <c r="H39" s="2">
-        <f>H4/H$1</f>
+        <f t="shared" si="13"/>
         <v>266.13925170898437</v>
       </c>
       <c r="I39" s="2">
-        <f>I4/I$1</f>
+        <f t="shared" si="13"/>
         <v>811.13259887695312</v>
       </c>
       <c r="J39" s="2">
-        <f>J4/J$1</f>
+        <f t="shared" si="13"/>
         <v>920.38198852539062</v>
       </c>
       <c r="K39" s="2">
-        <f>K4/K$1</f>
+        <f t="shared" si="13"/>
         <v>1797.890453338623</v>
       </c>
       <c r="L39" s="2">
-        <f>L4/L$1</f>
+        <f t="shared" si="13"/>
         <v>3628.8702125549316</v>
       </c>
     </row>
@@ -12591,43 +12681,43 @@
         <v>64</v>
       </c>
       <c r="C40" s="2">
-        <f>C5/C$1</f>
+        <f t="shared" ref="C40:L40" si="14">C5/C$1</f>
         <v>128.658203125</v>
       </c>
       <c r="D40" s="2">
-        <f>D5/D$1</f>
+        <f t="shared" si="14"/>
         <v>84.201171875</v>
       </c>
       <c r="E40" s="2">
-        <f>E5/E$1</f>
+        <f t="shared" si="14"/>
         <v>67.601806640625</v>
       </c>
       <c r="F40" s="2">
-        <f>F5/F$1</f>
+        <f t="shared" si="14"/>
         <v>78.7955322265625</v>
       </c>
       <c r="G40" s="2">
-        <f>G5/G$1</f>
+        <f t="shared" si="14"/>
         <v>113.671875</v>
       </c>
       <c r="H40" s="2">
-        <f>H5/H$1</f>
+        <f t="shared" si="14"/>
         <v>221.519775390625</v>
       </c>
       <c r="I40" s="2">
-        <f>I5/I$1</f>
+        <f t="shared" si="14"/>
         <v>484.38313293457031</v>
       </c>
       <c r="J40" s="2">
-        <f>J5/J$1</f>
+        <f t="shared" si="14"/>
         <v>902.21393585205078</v>
       </c>
       <c r="K40" s="2">
-        <f>K5/K$1</f>
+        <f t="shared" si="14"/>
         <v>1723.049186706543</v>
       </c>
       <c r="L40" s="2">
-        <f>L5/L$1</f>
+        <f t="shared" si="14"/>
         <v>3627.4833831787109</v>
       </c>
     </row>
@@ -12636,43 +12726,43 @@
         <v>32</v>
       </c>
       <c r="C41" s="2">
-        <f>C6/C$1</f>
+        <f t="shared" ref="C41:L41" si="15">C6/C$1</f>
         <v>107.181640625</v>
       </c>
       <c r="D41" s="2">
-        <f>D6/D$1</f>
+        <f t="shared" si="15"/>
         <v>76.42919921875</v>
       </c>
       <c r="E41" s="2">
-        <f>E6/E$1</f>
+        <f t="shared" si="15"/>
         <v>70.640380859375</v>
       </c>
       <c r="F41" s="2">
-        <f>F6/F$1</f>
+        <f t="shared" si="15"/>
         <v>78.1708984375</v>
       </c>
       <c r="G41" s="2">
-        <f>G6/G$1</f>
+        <f t="shared" si="15"/>
         <v>111.8492431640625</v>
       </c>
       <c r="H41" s="2">
-        <f>H6/H$1</f>
+        <f t="shared" si="15"/>
         <v>221.41815185546875</v>
       </c>
       <c r="I41" s="2">
-        <f>I6/I$1</f>
+        <f t="shared" si="15"/>
         <v>428.89190673828125</v>
       </c>
       <c r="J41" s="2">
-        <f>J6/J$1</f>
+        <f t="shared" si="15"/>
         <v>887.58399200439453</v>
       </c>
       <c r="K41" s="2">
-        <f>K6/K$1</f>
+        <f t="shared" si="15"/>
         <v>1721.7546195983887</v>
       </c>
       <c r="L41" s="2">
-        <f>L6/L$1</f>
+        <f t="shared" si="15"/>
         <v>3622.309591293335</v>
       </c>
     </row>
@@ -12681,66 +12771,66 @@
         <v>16</v>
       </c>
       <c r="C42" s="2">
-        <f>C7/C$1</f>
+        <f t="shared" ref="C42:K42" si="16">C7/C$1</f>
         <v>146.6103515625</v>
       </c>
       <c r="D42" s="2">
-        <f>D7/D$1</f>
+        <f t="shared" si="16"/>
         <v>109.3427734375</v>
       </c>
       <c r="E42" s="2">
-        <f>E7/E$1</f>
+        <f t="shared" si="16"/>
         <v>113.191162109375</v>
       </c>
       <c r="F42" s="2">
-        <f>F7/F$1</f>
+        <f t="shared" si="16"/>
         <v>179.1727294921875</v>
       </c>
       <c r="G42" s="2">
-        <f>G7/G$1</f>
+        <f t="shared" si="16"/>
         <v>217.37249755859375</v>
       </c>
       <c r="H42" s="2">
-        <f>H7/H$1</f>
+        <f t="shared" si="16"/>
         <v>412.66421508789063</v>
       </c>
       <c r="I42" s="2">
-        <f>I7/I$1</f>
+        <f t="shared" si="16"/>
         <v>962.15266418457031</v>
       </c>
       <c r="J42" s="2">
-        <f>J7/J$1</f>
+        <f t="shared" si="16"/>
         <v>1698.6467819213867</v>
       </c>
       <c r="K42" s="2">
-        <f>K7/K$1</f>
+        <f t="shared" si="16"/>
         <v>3499.3296508789062</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
@@ -12758,7 +12848,7 @@
     <mergeCell ref="C35:L35"/>
   </mergeCells>
   <conditionalFormatting sqref="C19:L25">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12770,7 +12860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:L34 C43:C47">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12782,7 +12872,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:L42">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12791,6 +12881,15 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:L15">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="16000000"/>
+        <cfvo type="num" val="30000000"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12803,8 +12902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12816,18 +12915,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -13314,18 +13413,18 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="N10">
         <v>2509519</v>
       </c>
@@ -13855,18 +13954,18 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="N19" s="2">
         <f t="shared" ref="N19:W19" si="1">N4*0.000001</f>
         <v>0.222383</v>
@@ -14639,450 +14738,450 @@
       </c>
     </row>
     <row r="34" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N34" s="5">
+      <c r="N34" s="4">
         <v>0.23256099999999999</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="4">
         <v>0.32148299999999996</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="4">
         <v>0.65214799999999995</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="4">
         <v>1.144973</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="4">
         <v>1.9741659999999999</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="4">
         <v>9.2187640000000002</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="4">
         <v>36.788725999999997</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="4">
         <v>135.55812899999998</v>
       </c>
-      <c r="V34" s="5">
+      <c r="V34" s="4">
         <v>500.50865799999997</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="4">
         <v>2100.3735917058821</v>
       </c>
     </row>
     <row r="35" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <v>0.222383</v>
       </c>
-      <c r="O35" s="5">
+      <c r="O35" s="4">
         <v>0.30677699999999997</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35" s="4">
         <v>0.61182099999999995</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="Q35" s="4">
         <v>1.0647219999999999</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="4">
         <v>1.9367789999999998</v>
       </c>
-      <c r="S35" s="5">
+      <c r="S35" s="4">
         <v>9.162488999999999</v>
       </c>
-      <c r="T35" s="5">
+      <c r="T35" s="4">
         <v>34.392488999999998</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="4">
         <v>134.49409499999999</v>
       </c>
-      <c r="V35" s="5">
+      <c r="V35" s="4">
         <v>489.24048099999999</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35" s="4">
         <v>2051.0841519999999</v>
       </c>
     </row>
     <row r="36" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N36" s="5">
+      <c r="N36" s="4">
         <v>0.132017</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="4">
         <v>0.19403799999999999</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="4">
         <v>0.29595499999999997</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="4">
         <v>0.71562999999999999</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="4">
         <v>1.8905459999999998</v>
       </c>
-      <c r="S36" s="5">
+      <c r="S36" s="4">
         <v>8.7208509999999997</v>
       </c>
-      <c r="T36" s="5">
+      <c r="T36" s="4">
         <v>53.158386</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="4">
         <v>120.636308</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="4">
         <v>471.306195</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36" s="4">
         <v>1902.5731059999998</v>
       </c>
     </row>
     <row r="37" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N37" s="5">
+      <c r="N37" s="4">
         <v>0.131746</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O37" s="4">
         <v>0.17244399999999999</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37" s="4">
         <v>0.276897</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q37" s="4">
         <v>0.64549299999999998</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="4">
         <v>1.8623999999999998</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S37" s="4">
         <v>7.2587599999999997</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T37" s="4">
         <v>31.744532999999997</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="4">
         <v>118.25498499999999</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V37" s="4">
         <v>451.687006</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W37" s="4">
         <v>1901.846008</v>
       </c>
     </row>
     <row r="38" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N38" s="5">
+      <c r="N38" s="4">
         <v>0.10975399999999999</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="4">
         <v>0.156527</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="4">
         <v>0.28934299999999996</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="Q38" s="4">
         <v>0.64037599999999995</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="4">
         <v>1.832538</v>
       </c>
-      <c r="S38" s="5">
+      <c r="S38" s="4">
         <v>7.2554299999999996</v>
       </c>
-      <c r="T38" s="5">
+      <c r="T38" s="4">
         <v>28.107859999999999</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="4">
         <v>116.33740899999999</v>
       </c>
-      <c r="V38" s="5">
+      <c r="V38" s="4">
         <v>451.34764300000001</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38" s="4">
         <v>1899.1334509999999</v>
       </c>
     </row>
     <row r="39" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N39" s="5">
+      <c r="N39" s="4">
         <v>0.15012899999999998</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="4">
         <v>0.22393399999999999</v>
       </c>
-      <c r="P39" s="5">
+      <c r="P39" s="4">
         <v>0.46363099999999996</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="Q39" s="4">
         <v>1.4677829999999998</v>
       </c>
-      <c r="R39" s="5">
+      <c r="R39" s="4">
         <v>3.5614309999999998</v>
       </c>
-      <c r="S39" s="5">
+      <c r="S39" s="4">
         <v>13.522181</v>
       </c>
-      <c r="T39" s="5">
+      <c r="T39" s="4">
         <v>63.055636999999997</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="4">
         <v>222.64503099999999</v>
       </c>
-      <c r="V39" s="5">
+      <c r="V39" s="4">
         <v>917.32827199999997</v>
       </c>
-      <c r="W39" s="5">
+      <c r="W39" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N40" s="5">
+      <c r="N40" s="4">
         <v>4.8984639999999997</v>
       </c>
-      <c r="O40" s="5">
+      <c r="O40" s="4">
         <v>19.13739</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="4">
         <v>74.248372000000003</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="Q40" s="4">
         <v>296.02157599999998</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="4">
         <v>1185.5704859999998</v>
       </c>
-      <c r="S40" s="5">
+      <c r="S40" s="4">
         <v>4798.3581199999999</v>
       </c>
-      <c r="T40" s="5">
+      <c r="T40" s="4">
         <v>19412.05488</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="4">
         <v>76464.740250000003</v>
       </c>
-      <c r="V40" s="5">
+      <c r="V40" s="4">
         <v>314798.0331</v>
       </c>
-      <c r="W40" s="5">
+      <c r="W40" s="4">
         <v>1227484</v>
       </c>
     </row>
     <row r="41" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N41" s="5">
+      <c r="N41" s="4">
         <v>2.5095190000000001</v>
       </c>
-      <c r="O41" s="5">
+      <c r="O41" s="4">
         <v>9.8254439999999992</v>
       </c>
-      <c r="P41" s="5">
+      <c r="P41" s="4">
         <v>39.221322000000001</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="Q41" s="4">
         <v>155.13299999999998</v>
       </c>
-      <c r="R41" s="5">
+      <c r="R41" s="4">
         <v>613.81983300000002</v>
       </c>
-      <c r="S41" s="5">
+      <c r="S41" s="4">
         <v>2451.838452</v>
       </c>
-      <c r="T41" s="5">
+      <c r="T41" s="4">
         <v>9838.8450809999995</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="4">
         <v>40324.5357</v>
       </c>
-      <c r="V41" s="5">
+      <c r="V41" s="4">
         <v>167580.2935</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41" s="4">
         <v>797311.54219999991</v>
       </c>
     </row>
     <row r="42" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N42" s="5">
+      <c r="N42" s="4">
         <v>2.180107</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="4">
         <v>9.1927209999999988</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="4">
         <v>31.041063999999999</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="Q42" s="4">
         <v>119.76902799999999</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="4">
         <v>455.58022799999998</v>
       </c>
-      <c r="S42" s="5">
+      <c r="S42" s="4">
         <v>1821.590571</v>
       </c>
-      <c r="T42" s="5">
+      <c r="T42" s="4">
         <v>7185.3608439999998</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="4">
         <v>27788.973524999998</v>
       </c>
-      <c r="V42" s="5">
+      <c r="V42" s="4">
         <v>115910.6945</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42" s="4">
         <v>496237.94949999999</v>
       </c>
     </row>
     <row r="43" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N43" s="5">
+      <c r="N43" s="4">
         <v>1.673719</v>
       </c>
-      <c r="O43" s="5">
+      <c r="O43" s="4">
         <v>7.0443689999999997</v>
       </c>
-      <c r="P43" s="5">
+      <c r="P43" s="4">
         <v>22.303958999999999</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="Q43" s="4">
         <v>98.298734999999994</v>
       </c>
-      <c r="R43" s="5">
+      <c r="R43" s="4">
         <v>410.32462399999997</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="4">
         <v>1597.9908889999999</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="4">
         <v>5535.9618819999996</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="4">
         <v>21020.14688</v>
       </c>
-      <c r="V43" s="5">
+      <c r="V43" s="4">
         <v>95596.341799999995</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43" s="4">
         <v>377586.19069999998</v>
       </c>
     </row>
     <row r="44" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N44" s="5">
+      <c r="N44" s="4">
         <v>2.0183999999999997</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O44" s="4">
         <v>6.9304429999999995</v>
       </c>
-      <c r="P44" s="5">
+      <c r="P44" s="4">
         <v>25.997734999999999</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="Q44" s="4">
         <v>89.877454999999998</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="4">
         <v>375.37604999999996</v>
       </c>
-      <c r="S44" s="5">
+      <c r="S44" s="4">
         <v>1455.5494209999999</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="4">
         <v>5624.1329219999998</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="4">
         <v>22419.622775</v>
       </c>
-      <c r="V44" s="5">
+      <c r="V44" s="4">
         <v>92536.925199999998</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44" s="4">
         <v>366961.35749999998</v>
       </c>
     </row>
     <row r="45" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N45" s="5">
+      <c r="N45" s="4">
         <v>1.5474569999999999</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="4">
         <v>6.0811500000000001</v>
       </c>
-      <c r="P45" s="5">
+      <c r="P45" s="4">
         <v>23.428521</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="Q45" s="4">
         <v>89.601827999999998</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="4">
         <v>350.76065699999998</v>
       </c>
-      <c r="S45" s="5">
+      <c r="S45" s="4">
         <v>1350.4703499999998</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="4">
         <v>5229.0901329999997</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="4">
         <v>20683.325000000001</v>
       </c>
-      <c r="V45" s="5">
+      <c r="V45" s="4">
         <v>84305.466132999994</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="4">
         <v>350425.49494999996</v>
       </c>
     </row>
     <row r="46" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N46" s="5">
+      <c r="N46" s="4">
         <v>1.538057</v>
       </c>
-      <c r="O46" s="5">
+      <c r="O46" s="4">
         <v>5.0436139999999998</v>
       </c>
-      <c r="P46" s="5">
+      <c r="P46" s="4">
         <v>20.4253</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="Q46" s="4">
         <v>82.376564000000002</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="4">
         <v>322.06630699999999</v>
       </c>
-      <c r="S46" s="5">
+      <c r="S46" s="4">
         <v>1282.542764</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="4">
         <v>4918.7428540000001</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="4">
         <v>19273.623082999999</v>
       </c>
-      <c r="V46" s="5">
+      <c r="V46" s="4">
         <v>78993.125899999999</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W46" s="4">
         <v>325729.73654999997</v>
       </c>
     </row>
     <row r="47" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N47" s="5">
+      <c r="N47" s="4">
         <v>1.6736409999999999</v>
       </c>
-      <c r="O47" s="5">
+      <c r="O47" s="4">
         <v>5.105855</v>
       </c>
-      <c r="P47" s="5">
+      <c r="P47" s="4">
         <v>18.329782999999999</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="Q47" s="4">
         <v>72.64177699999999</v>
       </c>
-      <c r="R47" s="5">
+      <c r="R47" s="4">
         <v>285.56482299999999</v>
       </c>
-      <c r="S47" s="5">
+      <c r="S47" s="4">
         <v>1178.3077579999999</v>
       </c>
-      <c r="T47" s="5">
+      <c r="T47" s="4">
         <v>4643.8885970000001</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="4">
         <v>18259.532349999998</v>
       </c>
-      <c r="V47" s="5">
+      <c r="V47" s="4">
         <v>72826.053033000004</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W47" s="4">
         <v>302954.39874999999</v>
       </c>
     </row>
